--- a/Scriptie - Experiment resultaten.xlsx
+++ b/Scriptie - Experiment resultaten.xlsx
@@ -59,9 +59,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="0.00000000"/>
-    <numFmt numFmtId="175" formatCode="0.00000000000000"/>
-    <numFmt numFmtId="176" formatCode="0.000000000000000"/>
+    <numFmt numFmtId="164" formatCode="0.00000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000000000000"/>
+    <numFmt numFmtId="166" formatCode="0.000000000000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -94,10 +94,10 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -7984,8 +7984,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="64071936"/>
-        <c:axId val="64073728"/>
+        <c:axId val="123989376"/>
+        <c:axId val="123991552"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9618,11 +9618,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="164220288"/>
-        <c:axId val="164178560"/>
+        <c:axId val="123996032"/>
+        <c:axId val="123993472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="64071936"/>
+        <c:axId val="123989376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9655,14 +9655,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64073728"/>
+        <c:crossAx val="123991552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9672,7 +9671,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64073728"/>
+        <c:axId val="123991552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9705,19 +9704,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64071936"/>
+        <c:crossAx val="123989376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="164178560"/>
+        <c:axId val="123993472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9739,20 +9737,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164220288"/>
+        <c:crossAx val="123996032"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
           <c:builtInUnit val="millions"/>
           <c:dispUnitsLbl>
-            <c:layout/>
             <c:tx>
               <c:rich>
                 <a:bodyPr rot="0" vert="horz"/>
@@ -9772,7 +9768,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:catAx>
-        <c:axId val="164220288"/>
+        <c:axId val="123996032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9782,7 +9778,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164178560"/>
+        <c:crossAx val="123993472"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -9791,7 +9788,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -14465,9 +14461,9 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:srgbClr val="00B0F0">
                   <a:alpha val="25000"/>
-                </a:schemeClr>
+                </a:srgbClr>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -19999,7 +19995,7 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:srgbClr val="00B0F0"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -21608,8 +21604,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="170165376"/>
-        <c:axId val="170167296"/>
+        <c:axId val="95461376"/>
+        <c:axId val="95463296"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -21649,11 +21645,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="164309248"/>
-        <c:axId val="164223616"/>
+        <c:axId val="95471872"/>
+        <c:axId val="95469952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="170165376"/>
+        <c:axId val="95461376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21693,7 +21689,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170167296"/>
+        <c:crossAx val="95463296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -21703,7 +21699,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="170167296"/>
+        <c:axId val="95463296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21743,7 +21739,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170165376"/>
+        <c:crossAx val="95461376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -21769,7 +21765,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="164223616"/>
+        <c:axId val="95469952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.55000000000000004"/>
@@ -21811,14 +21807,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164309248"/>
+        <c:crossAx val="95471872"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
         <c:minorUnit val="2.0000000000000004E-2"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="164309248"/>
+        <c:axId val="95471872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21827,7 +21823,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164223616"/>
+        <c:crossAx val="95469952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>

--- a/Scriptie - Experiment resultaten.xlsx
+++ b/Scriptie - Experiment resultaten.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="24915" windowHeight="12780" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="24915" windowHeight="12780"/>
   </bookViews>
   <sheets>
     <sheet name="Fitnesses &amp; Outputs" sheetId="1" r:id="rId1"/>
@@ -6351,6 +6351,54 @@
                 <c:pt idx="147">
                   <c:v>0.3156369</c:v>
                 </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.31563730000000001</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.31563730000000001</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.31574229999999998</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.31574229999999998</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.31574229999999998</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.31574229999999998</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.31574279999999999</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.3157432</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.3157449</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.3157449</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.3157449</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.31574980000000002</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.31574980000000002</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.31574980000000002</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.31574980000000002</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.31574980000000002</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7969,6 +8017,54 @@
                 <c:pt idx="147" formatCode="General">
                   <c:v>0.29394680000000001</c:v>
                 </c:pt>
+                <c:pt idx="148" formatCode="General">
+                  <c:v>0.2926993</c:v>
+                </c:pt>
+                <c:pt idx="149" formatCode="General">
+                  <c:v>0.29358600000000001</c:v>
+                </c:pt>
+                <c:pt idx="150" formatCode="General">
+                  <c:v>0.29320279999999999</c:v>
+                </c:pt>
+                <c:pt idx="151" formatCode="General">
+                  <c:v>0.2924271</c:v>
+                </c:pt>
+                <c:pt idx="152" formatCode="General">
+                  <c:v>0.29282469999999999</c:v>
+                </c:pt>
+                <c:pt idx="153" formatCode="General">
+                  <c:v>0.2939619</c:v>
+                </c:pt>
+                <c:pt idx="154" formatCode="General">
+                  <c:v>0.29403829999999997</c:v>
+                </c:pt>
+                <c:pt idx="155" formatCode="General">
+                  <c:v>0.29378789999999999</c:v>
+                </c:pt>
+                <c:pt idx="156" formatCode="General">
+                  <c:v>0.2933634</c:v>
+                </c:pt>
+                <c:pt idx="157" formatCode="General">
+                  <c:v>0.29164980000000001</c:v>
+                </c:pt>
+                <c:pt idx="158" formatCode="General">
+                  <c:v>0.29407699999999998</c:v>
+                </c:pt>
+                <c:pt idx="159" formatCode="General">
+                  <c:v>0.29468549999999999</c:v>
+                </c:pt>
+                <c:pt idx="160" formatCode="General">
+                  <c:v>0.29431669999999999</c:v>
+                </c:pt>
+                <c:pt idx="161" formatCode="General">
+                  <c:v>0.29360629999999999</c:v>
+                </c:pt>
+                <c:pt idx="162" formatCode="General">
+                  <c:v>0.29316350000000002</c:v>
+                </c:pt>
+                <c:pt idx="163" formatCode="General">
+                  <c:v>0.29449189999999997</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7984,8 +8080,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="123989376"/>
-        <c:axId val="123991552"/>
+        <c:axId val="68764416"/>
+        <c:axId val="68766336"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9603,6 +9699,54 @@
                 <c:pt idx="147">
                   <c:v>88181000</c:v>
                 </c:pt>
+                <c:pt idx="148">
+                  <c:v>88181000</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>88181000</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>88214000</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>88214000</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>88214000</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>88214000</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>88214000</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>88214000</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>88214000</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>88214000</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>88214000</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>88214000</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>88214000</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>88214000</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>88214000</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>88214000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9618,11 +9762,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="123996032"/>
-        <c:axId val="123993472"/>
+        <c:axId val="68770816"/>
+        <c:axId val="68768512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="123989376"/>
+        <c:axId val="68764416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9655,13 +9799,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123991552"/>
+        <c:crossAx val="68766336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9671,7 +9816,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="123991552"/>
+        <c:axId val="68766336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9704,18 +9849,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123989376"/>
+        <c:crossAx val="68764416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="123993472"/>
+        <c:axId val="68768512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9737,18 +9883,20 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123996032"/>
+        <c:crossAx val="68770816"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
           <c:builtInUnit val="millions"/>
           <c:dispUnitsLbl>
+            <c:layout/>
             <c:tx>
               <c:rich>
                 <a:bodyPr rot="0" vert="horz"/>
@@ -9768,7 +9916,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:catAx>
-        <c:axId val="123996032"/>
+        <c:axId val="68770816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9778,7 +9926,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123993472"/>
+        <c:crossAx val="68768512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9788,6 +9936,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -18357,6 +18506,54 @@
                 <c:pt idx="147">
                   <c:v>728352</c:v>
                 </c:pt>
+                <c:pt idx="148">
+                  <c:v>728352</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>728352</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>857352</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>857352</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>857352</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>857352</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>853117</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>848823</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>830411</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>830411</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>830411</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>779823</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>779823</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>779823</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>779823</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>779823</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -19973,6 +20170,54 @@
                 <c:pt idx="147">
                   <c:v>1176</c:v>
                 </c:pt>
+                <c:pt idx="148">
+                  <c:v>1176</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1176</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -21589,6 +21834,54 @@
                 <c:pt idx="147">
                   <c:v>4472000</c:v>
                 </c:pt>
+                <c:pt idx="148">
+                  <c:v>4450000</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>4450000</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>4490000</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>4490000</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>4490000</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>4490000</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>4490000</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>4490000</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>4490000</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>4490000</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>4490000</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>4490000</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>4490000</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>4490000</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>4490000</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>4490000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -21604,8 +21897,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="95461376"/>
-        <c:axId val="95463296"/>
+        <c:axId val="69145728"/>
+        <c:axId val="69147648"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -21645,11 +21938,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="95471872"/>
-        <c:axId val="95469952"/>
+        <c:axId val="69152128"/>
+        <c:axId val="69150208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95461376"/>
+        <c:axId val="69145728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21689,7 +21982,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95463296"/>
+        <c:crossAx val="69147648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -21699,7 +21992,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95463296"/>
+        <c:axId val="69147648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21739,7 +22032,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95461376"/>
+        <c:crossAx val="69145728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -21765,7 +22058,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="95469952"/>
+        <c:axId val="69150208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.55000000000000004"/>
@@ -21807,14 +22100,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95471872"/>
+        <c:crossAx val="69152128"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
         <c:minorUnit val="2.0000000000000004E-2"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="95471872"/>
+        <c:axId val="69152128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21823,7 +22116,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95469952"/>
+        <c:crossAx val="69150208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -22212,7 +22505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G378"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -25214,6 +25507,15 @@
       <c r="D151">
         <v>0.113709</v>
       </c>
+      <c r="E151">
+        <v>0.31563730000000001</v>
+      </c>
+      <c r="F151">
+        <v>0.2926993</v>
+      </c>
+      <c r="G151">
+        <v>88181000</v>
+      </c>
     </row>
     <row r="152" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B152">
@@ -25225,6 +25527,15 @@
       <c r="D152">
         <v>0.11693820000000001</v>
       </c>
+      <c r="E152">
+        <v>0.31563730000000001</v>
+      </c>
+      <c r="F152">
+        <v>0.29358600000000001</v>
+      </c>
+      <c r="G152">
+        <v>88181000</v>
+      </c>
     </row>
     <row r="153" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B153">
@@ -25236,6 +25547,15 @@
       <c r="D153">
         <v>0.1139025</v>
       </c>
+      <c r="E153">
+        <v>0.31574229999999998</v>
+      </c>
+      <c r="F153">
+        <v>0.29320279999999999</v>
+      </c>
+      <c r="G153">
+        <v>88214000</v>
+      </c>
     </row>
     <row r="154" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B154">
@@ -25247,6 +25567,15 @@
       <c r="D154">
         <v>0.1156783</v>
       </c>
+      <c r="E154">
+        <v>0.31574229999999998</v>
+      </c>
+      <c r="F154">
+        <v>0.2924271</v>
+      </c>
+      <c r="G154">
+        <v>88214000</v>
+      </c>
     </row>
     <row r="155" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B155">
@@ -25258,6 +25587,15 @@
       <c r="D155">
         <v>0.112955</v>
       </c>
+      <c r="E155">
+        <v>0.31574229999999998</v>
+      </c>
+      <c r="F155">
+        <v>0.29282469999999999</v>
+      </c>
+      <c r="G155">
+        <v>88214000</v>
+      </c>
     </row>
     <row r="156" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B156">
@@ -25269,6 +25607,15 @@
       <c r="D156">
         <v>0.11739810000000001</v>
       </c>
+      <c r="E156">
+        <v>0.31574229999999998</v>
+      </c>
+      <c r="F156">
+        <v>0.2939619</v>
+      </c>
+      <c r="G156">
+        <v>88214000</v>
+      </c>
     </row>
     <row r="157" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B157">
@@ -25280,6 +25627,15 @@
       <c r="D157">
         <v>0.11002049999999999</v>
       </c>
+      <c r="E157">
+        <v>0.31574279999999999</v>
+      </c>
+      <c r="F157">
+        <v>0.29403829999999997</v>
+      </c>
+      <c r="G157">
+        <v>88214000</v>
+      </c>
     </row>
     <row r="158" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B158">
@@ -25291,6 +25647,15 @@
       <c r="D158">
         <v>0.11899419999999999</v>
       </c>
+      <c r="E158">
+        <v>0.3157432</v>
+      </c>
+      <c r="F158">
+        <v>0.29378789999999999</v>
+      </c>
+      <c r="G158">
+        <v>88214000</v>
+      </c>
     </row>
     <row r="159" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B159">
@@ -25302,6 +25667,15 @@
       <c r="D159">
         <v>0.1138448</v>
       </c>
+      <c r="E159">
+        <v>0.3157449</v>
+      </c>
+      <c r="F159">
+        <v>0.2933634</v>
+      </c>
+      <c r="G159">
+        <v>88214000</v>
+      </c>
     </row>
     <row r="160" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B160">
@@ -25313,8 +25687,17 @@
       <c r="D160">
         <v>0.1188934</v>
       </c>
-    </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E160">
+        <v>0.3157449</v>
+      </c>
+      <c r="F160">
+        <v>0.29164980000000001</v>
+      </c>
+      <c r="G160">
+        <v>88214000</v>
+      </c>
+    </row>
+    <row r="161" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B161">
         <v>158</v>
       </c>
@@ -25324,8 +25707,17 @@
       <c r="D161">
         <v>0.1159992</v>
       </c>
-    </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E161">
+        <v>0.3157449</v>
+      </c>
+      <c r="F161">
+        <v>0.29407699999999998</v>
+      </c>
+      <c r="G161">
+        <v>88214000</v>
+      </c>
+    </row>
+    <row r="162" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B162">
         <v>159</v>
       </c>
@@ -25335,8 +25727,17 @@
       <c r="D162">
         <v>0.1141769</v>
       </c>
-    </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E162">
+        <v>0.31574980000000002</v>
+      </c>
+      <c r="F162">
+        <v>0.29468549999999999</v>
+      </c>
+      <c r="G162">
+        <v>88214000</v>
+      </c>
+    </row>
+    <row r="163" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B163">
         <v>160</v>
       </c>
@@ -25346,8 +25747,17 @@
       <c r="D163">
         <v>0.1125085</v>
       </c>
-    </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E163">
+        <v>0.31574980000000002</v>
+      </c>
+      <c r="F163">
+        <v>0.29431669999999999</v>
+      </c>
+      <c r="G163">
+        <v>88214000</v>
+      </c>
+    </row>
+    <row r="164" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B164">
         <v>161</v>
       </c>
@@ -25357,8 +25767,17 @@
       <c r="D164">
         <v>0.11596919999999999</v>
       </c>
-    </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E164">
+        <v>0.31574980000000002</v>
+      </c>
+      <c r="F164">
+        <v>0.29360629999999999</v>
+      </c>
+      <c r="G164">
+        <v>88214000</v>
+      </c>
+    </row>
+    <row r="165" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B165">
         <v>162</v>
       </c>
@@ -25368,8 +25787,17 @@
       <c r="D165">
         <v>0.11797340000000001</v>
       </c>
-    </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E165">
+        <v>0.31574980000000002</v>
+      </c>
+      <c r="F165">
+        <v>0.29316350000000002</v>
+      </c>
+      <c r="G165">
+        <v>88214000</v>
+      </c>
+    </row>
+    <row r="166" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B166">
         <v>163</v>
       </c>
@@ -25379,8 +25807,17 @@
       <c r="D166">
         <v>0.120702</v>
       </c>
-    </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E166">
+        <v>0.31574980000000002</v>
+      </c>
+      <c r="F166">
+        <v>0.29449189999999997</v>
+      </c>
+      <c r="G166">
+        <v>88214000</v>
+      </c>
+    </row>
+    <row r="167" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B167">
         <v>164</v>
       </c>
@@ -25391,7 +25828,7 @@
         <v>0.12023349999999999</v>
       </c>
     </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B168">
         <v>165</v>
       </c>
@@ -25402,7 +25839,7 @@
         <v>0.1195799</v>
       </c>
     </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B169">
         <v>166</v>
       </c>
@@ -25413,7 +25850,7 @@
         <v>0.11881949999999999</v>
       </c>
     </row>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B170">
         <v>167</v>
       </c>
@@ -25424,7 +25861,7 @@
         <v>0.1144863</v>
       </c>
     </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B171">
         <v>168</v>
       </c>
@@ -25435,7 +25872,7 @@
         <v>0.11241230000000001</v>
       </c>
     </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B172">
         <v>169</v>
       </c>
@@ -25446,7 +25883,7 @@
         <v>0.1100463</v>
       </c>
     </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B173">
         <v>170</v>
       </c>
@@ -25457,7 +25894,7 @@
         <v>0.10971019999999999</v>
       </c>
     </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B174">
         <v>171</v>
       </c>
@@ -25468,7 +25905,7 @@
         <v>0.1097022</v>
       </c>
     </row>
-    <row r="175" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B175">
         <v>172</v>
       </c>
@@ -25479,7 +25916,7 @@
         <v>0.1142039</v>
       </c>
     </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B176">
         <v>173</v>
       </c>
@@ -27722,7 +28159,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J378"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -31330,6 +31767,15 @@
       <c r="E151">
         <v>664333</v>
       </c>
+      <c r="F151">
+        <v>728352</v>
+      </c>
+      <c r="G151">
+        <v>1176</v>
+      </c>
+      <c r="H151">
+        <v>4450000</v>
+      </c>
     </row>
     <row r="152" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B152">
@@ -31345,6 +31791,15 @@
       <c r="E152">
         <v>659333</v>
       </c>
+      <c r="F152">
+        <v>728352</v>
+      </c>
+      <c r="G152">
+        <v>1176</v>
+      </c>
+      <c r="H152">
+        <v>4450000</v>
+      </c>
     </row>
     <row r="153" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B153">
@@ -31360,6 +31815,15 @@
       <c r="E153">
         <v>659333</v>
       </c>
+      <c r="F153">
+        <v>857352</v>
+      </c>
+      <c r="G153">
+        <v>1000</v>
+      </c>
+      <c r="H153">
+        <v>4490000</v>
+      </c>
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B154">
@@ -31375,6 +31839,15 @@
       <c r="E154">
         <v>664333</v>
       </c>
+      <c r="F154">
+        <v>857352</v>
+      </c>
+      <c r="G154">
+        <v>1000</v>
+      </c>
+      <c r="H154">
+        <v>4490000</v>
+      </c>
     </row>
     <row r="155" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B155">
@@ -31390,6 +31863,15 @@
       <c r="E155">
         <v>664333</v>
       </c>
+      <c r="F155">
+        <v>857352</v>
+      </c>
+      <c r="G155">
+        <v>1000</v>
+      </c>
+      <c r="H155">
+        <v>4490000</v>
+      </c>
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B156">
@@ -31405,6 +31887,15 @@
       <c r="E156">
         <v>664333</v>
       </c>
+      <c r="F156">
+        <v>857352</v>
+      </c>
+      <c r="G156">
+        <v>1000</v>
+      </c>
+      <c r="H156">
+        <v>4490000</v>
+      </c>
     </row>
     <row r="157" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B157">
@@ -31420,6 +31911,15 @@
       <c r="E157">
         <v>664333</v>
       </c>
+      <c r="F157">
+        <v>853117</v>
+      </c>
+      <c r="G157">
+        <v>1000</v>
+      </c>
+      <c r="H157">
+        <v>4490000</v>
+      </c>
     </row>
     <row r="158" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B158">
@@ -31435,6 +31935,15 @@
       <c r="E158">
         <v>664333</v>
       </c>
+      <c r="F158">
+        <v>848823</v>
+      </c>
+      <c r="G158">
+        <v>1000</v>
+      </c>
+      <c r="H158">
+        <v>4490000</v>
+      </c>
     </row>
     <row r="159" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B159">
@@ -31450,6 +31959,15 @@
       <c r="E159">
         <v>664333</v>
       </c>
+      <c r="F159">
+        <v>830411</v>
+      </c>
+      <c r="G159">
+        <v>1000</v>
+      </c>
+      <c r="H159">
+        <v>4490000</v>
+      </c>
     </row>
     <row r="160" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B160">
@@ -31465,8 +31983,17 @@
       <c r="E160">
         <v>664333</v>
       </c>
-    </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F160">
+        <v>830411</v>
+      </c>
+      <c r="G160">
+        <v>1000</v>
+      </c>
+      <c r="H160">
+        <v>4490000</v>
+      </c>
+    </row>
+    <row r="161" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B161">
         <f t="shared" si="2"/>
         <v>158</v>
@@ -31480,8 +32007,17 @@
       <c r="E161">
         <v>664333</v>
       </c>
-    </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F161">
+        <v>830411</v>
+      </c>
+      <c r="G161">
+        <v>1000</v>
+      </c>
+      <c r="H161">
+        <v>4490000</v>
+      </c>
+    </row>
+    <row r="162" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B162">
         <f t="shared" si="2"/>
         <v>159</v>
@@ -31495,8 +32031,17 @@
       <c r="E162">
         <v>664333</v>
       </c>
-    </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F162">
+        <v>779823</v>
+      </c>
+      <c r="G162">
+        <v>1000</v>
+      </c>
+      <c r="H162">
+        <v>4490000</v>
+      </c>
+    </row>
+    <row r="163" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B163">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -31510,8 +32055,17 @@
       <c r="E163">
         <v>664333</v>
       </c>
-    </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F163">
+        <v>779823</v>
+      </c>
+      <c r="G163">
+        <v>1000</v>
+      </c>
+      <c r="H163">
+        <v>4490000</v>
+      </c>
+    </row>
+    <row r="164" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B164">
         <f t="shared" si="2"/>
         <v>161</v>
@@ -31525,8 +32079,17 @@
       <c r="E164">
         <v>664333</v>
       </c>
-    </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F164">
+        <v>779823</v>
+      </c>
+      <c r="G164">
+        <v>1000</v>
+      </c>
+      <c r="H164">
+        <v>4490000</v>
+      </c>
+    </row>
+    <row r="165" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B165">
         <f t="shared" si="2"/>
         <v>162</v>
@@ -31540,8 +32103,17 @@
       <c r="E165">
         <v>664333</v>
       </c>
-    </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F165">
+        <v>779823</v>
+      </c>
+      <c r="G165">
+        <v>1000</v>
+      </c>
+      <c r="H165">
+        <v>4490000</v>
+      </c>
+    </row>
+    <row r="166" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B166">
         <f t="shared" si="2"/>
         <v>163</v>
@@ -31555,8 +32127,17 @@
       <c r="E166">
         <v>664333</v>
       </c>
-    </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F166">
+        <v>779823</v>
+      </c>
+      <c r="G166">
+        <v>1000</v>
+      </c>
+      <c r="H166">
+        <v>4490000</v>
+      </c>
+    </row>
+    <row r="167" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B167">
         <f t="shared" si="2"/>
         <v>164</v>
@@ -31571,7 +32152,7 @@
         <v>664333</v>
       </c>
     </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B168">
         <f t="shared" si="2"/>
         <v>165</v>
@@ -31586,7 +32167,7 @@
         <v>664333</v>
       </c>
     </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B169">
         <f t="shared" si="2"/>
         <v>166</v>
@@ -31601,7 +32182,7 @@
         <v>664333</v>
       </c>
     </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B170">
         <f t="shared" si="2"/>
         <v>167</v>
@@ -31616,7 +32197,7 @@
         <v>664333</v>
       </c>
     </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B171">
         <f t="shared" si="2"/>
         <v>168</v>
@@ -31631,7 +32212,7 @@
         <v>664333</v>
       </c>
     </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B172">
         <f t="shared" si="2"/>
         <v>169</v>
@@ -31646,7 +32227,7 @@
         <v>664333</v>
       </c>
     </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B173">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -31661,7 +32242,7 @@
         <v>664333</v>
       </c>
     </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B174">
         <f t="shared" si="2"/>
         <v>171</v>
@@ -31676,7 +32257,7 @@
         <v>664333</v>
       </c>
     </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B175">
         <f t="shared" si="2"/>
         <v>172</v>
@@ -31691,7 +32272,7 @@
         <v>664333</v>
       </c>
     </row>
-    <row r="176" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B176">
         <f t="shared" si="2"/>
         <v>173</v>

--- a/Scriptie - Experiment resultaten.xlsx
+++ b/Scriptie - Experiment resultaten.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="24915" windowHeight="12720" activeTab="1"/>
+    <workbookView xWindow="-150" yWindow="-480" windowWidth="29100" windowHeight="13455"/>
   </bookViews>
   <sheets>
     <sheet name="Fitnesses &amp; Outputs" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>Generatie</t>
   </si>
@@ -78,6 +78,24 @@
   <si>
     <t>Nulmeting --&gt;</t>
   </si>
+  <si>
+    <t>Lineair persbuffers na</t>
+  </si>
+  <si>
+    <t>Lineair persbuffers voor</t>
+  </si>
+  <si>
+    <t>Lineair ovenbuffers na</t>
+  </si>
+  <si>
+    <t>Nulmeting Lineair Fitness</t>
+  </si>
+  <si>
+    <t>Nulmeting Lineair Gem. Fitness</t>
+  </si>
+  <si>
+    <t>Nulmeting Lineair Output</t>
+  </si>
 </sst>
 </file>
 
@@ -87,7 +105,7 @@
     <numFmt numFmtId="164" formatCode="0.00000000"/>
     <numFmt numFmtId="165" formatCode="0.00000000000000"/>
     <numFmt numFmtId="166" formatCode="0.000000000000000"/>
-    <numFmt numFmtId="172" formatCode="0.0000000"/>
+    <numFmt numFmtId="167" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -126,14 +144,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -8116,8 +8135,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="47866624"/>
-        <c:axId val="47868544"/>
+        <c:axId val="39552512"/>
+        <c:axId val="39554432"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9798,11 +9817,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="47873024"/>
-        <c:axId val="47870720"/>
+        <c:axId val="39575552"/>
+        <c:axId val="39560704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="47866624"/>
+        <c:axId val="39552512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9842,7 +9861,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47868544"/>
+        <c:crossAx val="39554432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9852,7 +9871,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="47868544"/>
+        <c:axId val="39554432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9892,12 +9911,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47866624"/>
+        <c:crossAx val="39552512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="47870720"/>
+        <c:axId val="39560704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9938,7 +9957,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47873024"/>
+        <c:crossAx val="39575552"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -9959,7 +9978,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:catAx>
-        <c:axId val="47873024"/>
+        <c:axId val="39575552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9969,7 +9988,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47870720"/>
+        <c:crossAx val="39560704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10034,7 +10053,7 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="4"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
@@ -10059,10 +10078,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Fitnesses &amp; Outputs'!$B$3:$B$103</c:f>
+              <c:f>'Fitnesses &amp; Outputs'!$B$3:$B$153</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="151"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10365,17 +10384,167 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Fitnesses &amp; Outputs'!$H$3:$H$103</c:f>
+              <c:f>'Fitnesses &amp; Outputs'!$H$3:$H$153</c:f>
               <c:numCache>
                 <c:formatCode>0.0000000</c:formatCode>
-                <c:ptCount val="101"/>
-                <c:pt idx="0">
+                <c:ptCount val="151"/>
+                <c:pt idx="0" formatCode="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -10665,6 +10834,60 @@
                 </c:pt>
                 <c:pt idx="96" formatCode="General">
                   <c:v>0.22659670000000001</c:v>
+                </c:pt>
+                <c:pt idx="97" formatCode="General">
+                  <c:v>0.22659679999999999</c:v>
+                </c:pt>
+                <c:pt idx="98" formatCode="General">
+                  <c:v>0.22659679999999999</c:v>
+                </c:pt>
+                <c:pt idx="99" formatCode="General">
+                  <c:v>0.22659679999999999</c:v>
+                </c:pt>
+                <c:pt idx="100" formatCode="General">
+                  <c:v>0.22659679999999999</c:v>
+                </c:pt>
+                <c:pt idx="101" formatCode="General">
+                  <c:v>0.22659679999999999</c:v>
+                </c:pt>
+                <c:pt idx="102" formatCode="General">
+                  <c:v>0.2286639</c:v>
+                </c:pt>
+                <c:pt idx="103" formatCode="General">
+                  <c:v>0.2286639</c:v>
+                </c:pt>
+                <c:pt idx="104" formatCode="General">
+                  <c:v>0.22884109999999999</c:v>
+                </c:pt>
+                <c:pt idx="105" formatCode="General">
+                  <c:v>0.22904869999999999</c:v>
+                </c:pt>
+                <c:pt idx="106" formatCode="General">
+                  <c:v>0.22966220000000001</c:v>
+                </c:pt>
+                <c:pt idx="107" formatCode="General">
+                  <c:v>0.22966220000000001</c:v>
+                </c:pt>
+                <c:pt idx="108" formatCode="General">
+                  <c:v>0.22966220000000001</c:v>
+                </c:pt>
+                <c:pt idx="109" formatCode="General">
+                  <c:v>0.23031399999999999</c:v>
+                </c:pt>
+                <c:pt idx="110" formatCode="General">
+                  <c:v>0.23031399999999999</c:v>
+                </c:pt>
+                <c:pt idx="111" formatCode="General">
+                  <c:v>0.23031399999999999</c:v>
+                </c:pt>
+                <c:pt idx="112" formatCode="General">
+                  <c:v>0.23031399999999999</c:v>
+                </c:pt>
+                <c:pt idx="113" formatCode="General">
+                  <c:v>0.23031399999999999</c:v>
+                </c:pt>
+                <c:pt idx="114" formatCode="General">
+                  <c:v>0.23031399999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10672,7 +10895,7 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
@@ -10697,614 +10920,476 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>'Fitnesses &amp; Outputs'!$B$3:$B$103</c:f>
+              <c:f>'Fitnesses &amp; Outputs'!$I$3:$I$153</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000</c:formatCode>
+                <c:ptCount val="151"/>
+                <c:pt idx="0" formatCode="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.8267019999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.100457</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1018884</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.102455</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.9874370000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1011716</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1026475</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1021411</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1008783</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1016276</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1021338</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.1026207</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.1040532</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.10368189999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.10419879999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.104037</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.1056122</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.10840130000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.10981589999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.11411109999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.1131341</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.11606660000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.1155668</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.1183276</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.1120674</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.1241736</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.1254054</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.13420750000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.13505690000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.148011</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.1479357</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.1422493</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.14141609999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.1351521</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.14821570000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.1295915</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.1345971</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.1244</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.12745419999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.12959290000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.14185500000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.14060130000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.14004050000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.13961409999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.1468294</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.1549924</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.14930979999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.14291860000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.14858540000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.1497338</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.14695530000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.14885670000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.1482492</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.14925620000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.14866070000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.14966650000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.1499636</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.14991460000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.14945310000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.15089749999999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.15173110000000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.1621978</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.16374459999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.17145469999999999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.1634245</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.1786983</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.16475809999999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.16041240000000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.17813080000000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.17097109999999999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.17852419999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.18136340000000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.17119619999999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.17164650000000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.17229410000000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.1759926</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.16931379999999999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.18199599999999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.17858940000000001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.16841410000000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.1838602</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.1710246</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.19473940000000001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.19006709999999999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.18980320000000001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.1883466</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.19084960000000001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.1907741</c:v>
+                </c:pt>
+                <c:pt idx="89" formatCode="General">
+                  <c:v>0.18944739999999999</c:v>
+                </c:pt>
+                <c:pt idx="90" formatCode="General">
+                  <c:v>0.1893975</c:v>
+                </c:pt>
+                <c:pt idx="91" formatCode="General">
+                  <c:v>0.18944739999999999</c:v>
+                </c:pt>
+                <c:pt idx="92" formatCode="General">
+                  <c:v>0.1893975</c:v>
+                </c:pt>
+                <c:pt idx="93" formatCode="General">
+                  <c:v>0.18807260000000001</c:v>
+                </c:pt>
+                <c:pt idx="94" formatCode="General">
+                  <c:v>0.19056770000000001</c:v>
+                </c:pt>
+                <c:pt idx="95" formatCode="General">
+                  <c:v>0.1893726</c:v>
+                </c:pt>
+                <c:pt idx="96" formatCode="General">
+                  <c:v>0.19032830000000001</c:v>
+                </c:pt>
+                <c:pt idx="97" formatCode="General">
+                  <c:v>0.19046779999999999</c:v>
+                </c:pt>
+                <c:pt idx="98" formatCode="General">
+                  <c:v>0.18968489999999999</c:v>
+                </c:pt>
+                <c:pt idx="99" formatCode="General">
+                  <c:v>0.1898562</c:v>
+                </c:pt>
+                <c:pt idx="100" formatCode="General">
+                  <c:v>0.1888734</c:v>
+                </c:pt>
+                <c:pt idx="101" formatCode="General">
+                  <c:v>0.1894981</c:v>
+                </c:pt>
+                <c:pt idx="102" formatCode="General">
+                  <c:v>0.19449630000000001</c:v>
+                </c:pt>
+                <c:pt idx="103" formatCode="General">
+                  <c:v>0.1878446</c:v>
+                </c:pt>
+                <c:pt idx="104" formatCode="General">
+                  <c:v>0.1912083</c:v>
+                </c:pt>
+                <c:pt idx="105" formatCode="General">
+                  <c:v>0.19504550000000001</c:v>
+                </c:pt>
+                <c:pt idx="106" formatCode="General">
+                  <c:v>0.19228590000000001</c:v>
+                </c:pt>
+                <c:pt idx="107" formatCode="General">
+                  <c:v>0.20629690000000001</c:v>
+                </c:pt>
+                <c:pt idx="108" formatCode="General">
+                  <c:v>0.1919776</c:v>
+                </c:pt>
+                <c:pt idx="109" formatCode="General">
+                  <c:v>0.19735839999999999</c:v>
+                </c:pt>
+                <c:pt idx="110" formatCode="General">
+                  <c:v>0.19345589999999999</c:v>
+                </c:pt>
+                <c:pt idx="111" formatCode="General">
+                  <c:v>0.19479679999999999</c:v>
+                </c:pt>
+                <c:pt idx="112" formatCode="General">
+                  <c:v>0.19425139999999999</c:v>
+                </c:pt>
+                <c:pt idx="113" formatCode="General">
+                  <c:v>0.1958068</c:v>
+                </c:pt>
+                <c:pt idx="114" formatCode="General">
+                  <c:v>0.19650400000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Fitnesses &amp; Outputs'!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nulmeting Lineair Fitness</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Fitnesses &amp; Outputs'!$K$3:$K$153</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="151"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.1051189</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>0.1959719</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>0.1959719</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>0.1966253</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>0.19916629999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>0.199181</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>100</c:v>
+                  <c:v>0.20088200000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Fitnesses &amp; Outputs'!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nulmeting Lineair Gem. Fitness</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B050">
+                  <a:alpha val="50000"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Fitnesses &amp; Outputs'!$I$3:$I$103</c:f>
+              <c:f>'Fitnesses &amp; Outputs'!$L$3:$L$153</c:f>
               <c:numCache>
-                <c:formatCode>0.0000000</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="151"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.8267019999999997E-2</c:v>
+                  <c:v>9.3060959999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.100457</c:v>
+                  <c:v>9.6589019999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1018884</c:v>
+                  <c:v>9.6282000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.102455</c:v>
+                  <c:v>0.1174762</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.9874370000000004E-2</c:v>
+                  <c:v>0.12069439999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1011716</c:v>
+                  <c:v>0.12671389999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1026475</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.1021411</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.1008783</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.1016276</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.1021338</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.1026207</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.1040532</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.10368189999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.10419879999999999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.104037</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.1056122</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.10840130000000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.10981589999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.11411109999999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.1131341</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.11606660000000001</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.1155668</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.1183276</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.1120674</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.1241736</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.1254054</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.13420750000000001</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.13505690000000001</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.148011</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.1479357</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.1422493</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.14141609999999999</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.1351521</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.14821570000000001</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.1295915</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.1345971</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.1244</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.12745419999999999</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.12959290000000001</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.14185500000000001</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.14060130000000001</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.14004050000000001</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.13961409999999999</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.1468294</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.1549924</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.14930979999999999</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.14291860000000001</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.14858540000000001</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.1497338</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.14695530000000001</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.14885670000000001</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.1482492</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.14925620000000001</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.14866070000000001</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.14966650000000001</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.1499636</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.14991460000000001</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.14945310000000001</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.15089749999999999</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.15173110000000001</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.1621978</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.16374459999999999</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.17145469999999999</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.1634245</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.1786983</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.16475809999999999</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.16041240000000001</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.17813080000000001</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.17097109999999999</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.17852419999999999</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.18136340000000001</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.17119619999999999</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.17164650000000001</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.17229410000000001</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.1759926</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.16931379999999999</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.18199599999999999</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.17858940000000001</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.16841410000000001</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.1838602</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.1710246</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.19473940000000001</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.19006709999999999</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.18980320000000001</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.1883466</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.19084960000000001</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.1907741</c:v>
-                </c:pt>
-                <c:pt idx="89" formatCode="General">
-                  <c:v>0.18944739999999999</c:v>
-                </c:pt>
-                <c:pt idx="90" formatCode="General">
-                  <c:v>0.1893975</c:v>
-                </c:pt>
-                <c:pt idx="91" formatCode="General">
-                  <c:v>0.18944739999999999</c:v>
-                </c:pt>
-                <c:pt idx="92" formatCode="General">
-                  <c:v>0.1893975</c:v>
-                </c:pt>
-                <c:pt idx="93" formatCode="General">
-                  <c:v>0.18807260000000001</c:v>
-                </c:pt>
-                <c:pt idx="94" formatCode="General">
-                  <c:v>0.19056770000000001</c:v>
-                </c:pt>
-                <c:pt idx="95" formatCode="General">
-                  <c:v>0.1893726</c:v>
-                </c:pt>
-                <c:pt idx="96" formatCode="General">
-                  <c:v>0.19032830000000001</c:v>
+                  <c:v>0.12660060000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11321,14 +11406,14 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="160694656"/>
-        <c:axId val="160696576"/>
+        <c:axId val="39882752"/>
+        <c:axId val="39884672"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="4"/>
+          <c:idx val="0"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
@@ -11348,619 +11433,424 @@
                   <a:alpha val="50000"/>
                 </a:srgbClr>
               </a:solidFill>
+              <a:prstDash val="dash"/>
             </a:ln>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>'Fitnesses &amp; Outputs'!$B$3:$B$103</c:f>
+              <c:f>'Fitnesses &amp; Outputs'!$J$3:$J$153</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="151"/>
+                <c:pt idx="0">
+                  <c:v>32101000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32333000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32946000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32946000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32946000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32946000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32971000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32971000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32971000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32971000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32971000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>33180000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>33180000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>33619000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>33751000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>33751000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>33958000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>35773000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36407000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>36424000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>36424000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>36424000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>36424000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>36424000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>36424000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>48103000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>48587000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>48587000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>48609000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>48609000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>48609000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>48609000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>48609000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>48609000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>48609000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>48609000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>48609000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>48701000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>48905000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>49141000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>50437000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>50437000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>53443000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>53629000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>53629000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>54596000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>54756000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>54756000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>54756000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>55572000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>55572000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>55572000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>55590000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>55590000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55625000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55625000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>55686000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>55686000</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>55957000</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>55957000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60637000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>60637000</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62846000</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>62846000</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>62846000</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>62978000</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>63091000</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>63091000</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>63097000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>63194000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>63194000</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>63194000</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>63194000</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>63194000</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>63194000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>63200000</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>63200000</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>63200000</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>63222000</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>63247000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>63321000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>63375000</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>63375000</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>63375000</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>63375000</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>63376000</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>63376000</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>63376000</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>63376000</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>63376000</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>63376000</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>63376000</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>63376000</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>63376000</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>63376000</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>63376000</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>63376000</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>63376000</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>63376000</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>63376000</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>63376000</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>63376000</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>63958000</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>63958000</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>64008000</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>64066000</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>64238000</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>64238000</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>64238000</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>64421000</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>64421000</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>64421000</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>64421000</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>64421000</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>64421000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Fitnesses &amp; Outputs'!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nulmeting Lineair Output</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000">
+                  <a:alpha val="50000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Fitnesses &amp; Outputs'!$M$3:$M$153</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="151"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>29372000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>54760000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>54760000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>54943000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>55654000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>55658000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Fitnesses &amp; Outputs'!$J$3:$J$103</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
-                <c:pt idx="0">
-                  <c:v>32101000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>32333000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32946000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>32946000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>32946000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32946000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32971000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>32971000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>32971000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>32971000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>32971000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>33180000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>33180000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>33619000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>33751000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>33751000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>33958000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>35773000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>36407000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>36424000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>36424000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>36424000</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>36424000</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>36424000</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>36424000</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>48103000</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>48587000</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>48587000</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>48609000</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>48609000</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>48609000</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>48609000</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>48609000</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>48609000</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>48609000</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>48609000</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>48609000</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>48701000</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>48905000</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>49141000</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>50437000</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>50437000</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>53443000</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>53629000</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>53629000</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>54596000</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>54756000</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>54756000</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>54756000</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>55572000</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>55572000</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>55572000</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>55590000</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>55590000</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>55625000</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>55625000</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>55686000</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>55686000</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>55957000</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>55957000</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>60637000</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>60637000</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>62846000</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>62846000</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>62846000</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>62978000</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>63091000</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>63091000</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>63097000</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>63194000</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>63194000</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>63194000</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>63194000</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>63194000</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>63194000</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>63200000</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>63200000</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>63200000</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>63222000</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>63247000</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>63321000</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>63375000</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>63375000</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>63375000</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>63375000</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>63376000</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>63376000</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>63376000</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>63376000</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>63376000</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>63376000</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>63376000</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>63376000</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>63376000</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>63376000</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>63376000</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>63376000</c:v>
+                  <c:v>56134000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11977,11 +11867,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="154339200"/>
-        <c:axId val="153085440"/>
+        <c:axId val="39897344"/>
+        <c:axId val="39895040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="160694656"/>
+        <c:axId val="39882752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12021,7 +11911,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160696576"/>
+        <c:crossAx val="39884672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12031,7 +11921,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160696576"/>
+        <c:axId val="39884672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12071,12 +11961,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160694656"/>
+        <c:crossAx val="39882752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="153085440"/>
+        <c:axId val="39895040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12113,11 +12003,11 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154339200"/>
+        <c:crossAx val="39897344"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -12128,7 +12018,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:catAx>
-        <c:axId val="154339200"/>
+        <c:axId val="39897344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12138,7 +12028,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153085440"/>
+        <c:crossAx val="39895040"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -24108,8 +23999,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="149427712"/>
-        <c:axId val="149429632"/>
+        <c:axId val="163234560"/>
+        <c:axId val="163236480"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -24119,7 +24010,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Buffers &amp; Ploegen'!$N$2</c:f>
+              <c:f>'Buffers &amp; Ploegen'!$Q$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -24130,30 +24021,30 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Buffers &amp; Ploegen'!$N$3:$N$9</c:f>
+              <c:f>'Buffers &amp; Ploegen'!$Q$3:$Q$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24170,11 +24061,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="149774336"/>
-        <c:axId val="149714816"/>
+        <c:axId val="100666368"/>
+        <c:axId val="100664448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="149427712"/>
+        <c:axId val="163234560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24214,7 +24105,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149429632"/>
+        <c:crossAx val="163236480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -24224,7 +24115,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="149429632"/>
+        <c:axId val="163236480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24264,7 +24155,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149427712"/>
+        <c:crossAx val="163234560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -24290,7 +24181,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="149714816"/>
+        <c:axId val="100664448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.29577009361005"/>
@@ -24333,14 +24224,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149774336"/>
+        <c:crossAx val="100666368"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.25"/>
         <c:minorUnit val="5.000000000000001E-2"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="149774336"/>
+        <c:axId val="100666368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24349,7 +24240,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149714816"/>
+        <c:crossAx val="100664448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -24427,10 +24318,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Buffers &amp; Ploegen'!$B$3:$B$103</c:f>
+              <c:f>'Buffers &amp; Ploegen'!$B$3:$B$153</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="151"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -24733,16 +24624,166 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Buffers &amp; Ploegen'!$I$3:$I$103</c:f>
+              <c:f>'Buffers &amp; Ploegen'!$I$3:$I$153</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="151"/>
                 <c:pt idx="0">
                   <c:v>17000</c:v>
                 </c:pt>
@@ -25033,6 +25074,60 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>38761000</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>38761000</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>38761000</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>38761000</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>38761000</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>38761000</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>38761000</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>38761000</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>39142000</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>39208000</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>39208000</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>39208000</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>39208000</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>39208000</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>39208000</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>39208000</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>39208000</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>39208000</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>39208000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25067,10 +25162,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Buffers &amp; Ploegen'!$B$3:$B$103</c:f>
+              <c:f>'Buffers &amp; Ploegen'!$B$3:$B$153</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="151"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -25373,16 +25468,166 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Buffers &amp; Ploegen'!$J$3:$J$103</c:f>
+              <c:f>'Buffers &amp; Ploegen'!$J$3:$J$153</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="151"/>
                 <c:pt idx="0">
                   <c:v>17000</c:v>
                 </c:pt>
@@ -25673,6 +25918,60 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>3377000</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>3377000</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>3377000</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>3377000</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>3711000</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>3711000</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>3711000</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>4307000</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>4307000</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>4307000</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>4307000</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>4307000</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>4307000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25707,10 +26006,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Buffers &amp; Ploegen'!$B$3:$B$103</c:f>
+              <c:f>'Buffers &amp; Ploegen'!$B$3:$B$153</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="151"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -26013,16 +26312,166 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Buffers &amp; Ploegen'!$K$3:$K$103</c:f>
+              <c:f>'Buffers &amp; Ploegen'!$K$3:$K$153</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="151"/>
                 <c:pt idx="0">
                   <c:v>7460000</c:v>
                 </c:pt>
@@ -26313,6 +26762,237 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>16189000</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>16165000</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>16165000</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>16165000</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>16165000</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>16165000</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>16165000</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>16165000</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>16165000</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>16048000</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>16048000</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>16048000</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>16048000</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>16048000</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>16048000</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>16048000</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>16048000</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>16048000</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>16048000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Buffers &amp; Ploegen'!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lineair persbuffers na</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Buffers &amp; Ploegen'!$L$3:$L$153</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="151"/>
+                <c:pt idx="0">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>406000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>406000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>406000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>406000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>406000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>406000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Buffers &amp; Ploegen'!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lineair persbuffers voor</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Buffers &amp; Ploegen'!$M$3:$M$153</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="151"/>
+                <c:pt idx="0">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Buffers &amp; Ploegen'!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lineair ovenbuffers na</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Buffers &amp; Ploegen'!$N$3:$N$153</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="151"/>
+                <c:pt idx="0">
+                  <c:v>1076000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1076000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2901000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2901000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3306000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4279000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4189000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4871000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26329,18 +27009,18 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="150019072"/>
-        <c:axId val="150148224"/>
+        <c:axId val="100700928"/>
+        <c:axId val="100702848"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="3"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Buffers &amp; Ploegen'!$N$2</c:f>
+              <c:f>'Buffers &amp; Ploegen'!$Q$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -26351,30 +27031,30 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Buffers &amp; Ploegen'!$N$3:$N$9</c:f>
+              <c:f>'Buffers &amp; Ploegen'!$Q$3:$Q$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26391,11 +27071,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="150173184"/>
-        <c:axId val="150150528"/>
+        <c:axId val="100719616"/>
+        <c:axId val="100717696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="150019072"/>
+        <c:axId val="100700928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -26435,7 +27115,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150148224"/>
+        <c:crossAx val="100702848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -26445,7 +27125,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="150148224"/>
+        <c:axId val="100702848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -26485,7 +27165,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150019072"/>
+        <c:crossAx val="100700928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -26511,10 +27191,10 @@
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="150150528"/>
+        <c:axId val="100717696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="4.1323861684980887"/>
+          <c:max val="4.1323861684980878"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -26554,14 +27234,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150173184"/>
+        <c:crossAx val="100719616"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
         <c:minorUnit val="0.25"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="150173184"/>
+        <c:axId val="100719616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -26570,7 +27250,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150150528"/>
+        <c:crossAx val="100717696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -38528,8 +39208,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="52086272"/>
-        <c:axId val="52088192"/>
+        <c:axId val="101643776"/>
+        <c:axId val="101645696"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -38590,11 +39270,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="150200320"/>
-        <c:axId val="150041728"/>
+        <c:axId val="100806656"/>
+        <c:axId val="100800384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="52086272"/>
+        <c:axId val="101643776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -38634,7 +39314,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52088192"/>
+        <c:crossAx val="101645696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -38644,7 +39324,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52088192"/>
+        <c:axId val="101645696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -38684,7 +39364,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52086272"/>
+        <c:crossAx val="101643776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -38710,7 +39390,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="150041728"/>
+        <c:axId val="100800384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.55098482246641212"/>
@@ -38752,14 +39432,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150200320"/>
+        <c:crossAx val="100806656"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
         <c:minorUnit val="2.0000000000000004E-2"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="150200320"/>
+        <c:axId val="100806656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -38768,7 +39448,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150041728"/>
+        <c:crossAx val="100800384"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -40684,8 +41365,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="109599360"/>
-        <c:axId val="110080768"/>
+        <c:axId val="100846208"/>
+        <c:axId val="100856576"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -40746,11 +41427,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="110101632"/>
-        <c:axId val="110083072"/>
+        <c:axId val="101655680"/>
+        <c:axId val="100858880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="109599360"/>
+        <c:axId val="100846208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -40790,7 +41471,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110080768"/>
+        <c:crossAx val="100856576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -40800,7 +41481,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110080768"/>
+        <c:axId val="100856576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -40840,7 +41521,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109599360"/>
+        <c:crossAx val="100846208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -40866,7 +41547,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="110083072"/>
+        <c:axId val="100858880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.55098482246641212"/>
@@ -40908,14 +41589,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110101632"/>
+        <c:crossAx val="101655680"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
         <c:minorUnit val="2.0000000000000004E-2"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="110101632"/>
+        <c:axId val="101655680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -40924,7 +41605,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110083072"/>
+        <c:crossAx val="100858880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -40988,16 +41669,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -41725,10 +42406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J378"/>
+  <dimension ref="B2:M378"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41742,9 +42423,12 @@
     <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -41772,8 +42456,17 @@
       <c r="J2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>0</v>
       </c>
@@ -41792,17 +42485,26 @@
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="7">
         <v>0</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="7">
         <v>0</v>
       </c>
       <c r="J3">
         <v>32101000</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1</v>
       </c>
@@ -41830,8 +42532,17 @@
       <c r="J4">
         <v>32333000</v>
       </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <v>0.1051189</v>
+      </c>
+      <c r="L4">
+        <v>9.3060959999999998E-2</v>
+      </c>
+      <c r="M4">
+        <v>29372000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>2</v>
       </c>
@@ -41859,8 +42570,17 @@
       <c r="J5">
         <v>32946000</v>
       </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <v>0.1959719</v>
+      </c>
+      <c r="L5">
+        <v>9.6589019999999998E-2</v>
+      </c>
+      <c r="M5">
+        <v>54760000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>3</v>
       </c>
@@ -41888,8 +42608,17 @@
       <c r="J6">
         <v>32946000</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <v>0.1959719</v>
+      </c>
+      <c r="L6">
+        <v>9.6282000000000006E-2</v>
+      </c>
+      <c r="M6">
+        <v>54760000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>4</v>
       </c>
@@ -41917,8 +42646,17 @@
       <c r="J7">
         <v>32946000</v>
       </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <v>0.1966253</v>
+      </c>
+      <c r="L7">
+        <v>0.1174762</v>
+      </c>
+      <c r="M7">
+        <v>54943000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>5</v>
       </c>
@@ -41946,8 +42684,17 @@
       <c r="J8">
         <v>32946000</v>
       </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <v>0.19916629999999999</v>
+      </c>
+      <c r="L8">
+        <v>0.12069439999999999</v>
+      </c>
+      <c r="M8">
+        <v>55654000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>6</v>
       </c>
@@ -41975,8 +42722,17 @@
       <c r="J9">
         <v>32971000</v>
       </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <v>0.199181</v>
+      </c>
+      <c r="L9">
+        <v>0.12671389999999999</v>
+      </c>
+      <c r="M9">
+        <v>55658000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>7</v>
       </c>
@@ -42004,8 +42760,17 @@
       <c r="J10">
         <v>32971000</v>
       </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <v>0.20088200000000001</v>
+      </c>
+      <c r="L10">
+        <v>0.12660060000000001</v>
+      </c>
+      <c r="M10">
+        <v>56134000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>8</v>
       </c>
@@ -42034,7 +42799,7 @@
         <v>32971000</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>9</v>
       </c>
@@ -42063,7 +42828,7 @@
         <v>32971000</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>10</v>
       </c>
@@ -42092,7 +42857,7 @@
         <v>32971000</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>11</v>
       </c>
@@ -42121,7 +42886,7 @@
         <v>33180000</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>12</v>
       </c>
@@ -42150,7 +42915,7 @@
         <v>33180000</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>13</v>
       </c>
@@ -44605,6 +45370,15 @@
       <c r="G100">
         <v>88164000</v>
       </c>
+      <c r="H100">
+        <v>0.22659679999999999</v>
+      </c>
+      <c r="I100">
+        <v>0.19046779999999999</v>
+      </c>
+      <c r="J100">
+        <v>63376000</v>
+      </c>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B101">
@@ -44625,6 +45399,15 @@
       <c r="G101">
         <v>88164000</v>
       </c>
+      <c r="H101">
+        <v>0.22659679999999999</v>
+      </c>
+      <c r="I101">
+        <v>0.18968489999999999</v>
+      </c>
+      <c r="J101">
+        <v>63376000</v>
+      </c>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B102">
@@ -44645,6 +45428,15 @@
       <c r="G102">
         <v>88164000</v>
       </c>
+      <c r="H102">
+        <v>0.22659679999999999</v>
+      </c>
+      <c r="I102">
+        <v>0.1898562</v>
+      </c>
+      <c r="J102">
+        <v>63376000</v>
+      </c>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B103">
@@ -44665,6 +45457,15 @@
       <c r="G103">
         <v>88164000</v>
       </c>
+      <c r="H103">
+        <v>0.22659679999999999</v>
+      </c>
+      <c r="I103">
+        <v>0.1888734</v>
+      </c>
+      <c r="J103">
+        <v>63376000</v>
+      </c>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B104">
@@ -44685,6 +45486,15 @@
       <c r="G104">
         <v>88164000</v>
       </c>
+      <c r="H104">
+        <v>0.22659679999999999</v>
+      </c>
+      <c r="I104">
+        <v>0.1894981</v>
+      </c>
+      <c r="J104">
+        <v>63376000</v>
+      </c>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B105">
@@ -44705,6 +45515,15 @@
       <c r="G105">
         <v>88164000</v>
       </c>
+      <c r="H105">
+        <v>0.2286639</v>
+      </c>
+      <c r="I105">
+        <v>0.19449630000000001</v>
+      </c>
+      <c r="J105">
+        <v>63958000</v>
+      </c>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B106">
@@ -44725,6 +45544,15 @@
       <c r="G106">
         <v>88164000</v>
       </c>
+      <c r="H106">
+        <v>0.2286639</v>
+      </c>
+      <c r="I106">
+        <v>0.1878446</v>
+      </c>
+      <c r="J106">
+        <v>63958000</v>
+      </c>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B107">
@@ -44745,6 +45573,15 @@
       <c r="G107">
         <v>88164000</v>
       </c>
+      <c r="H107">
+        <v>0.22884109999999999</v>
+      </c>
+      <c r="I107">
+        <v>0.1912083</v>
+      </c>
+      <c r="J107">
+        <v>64008000</v>
+      </c>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B108">
@@ -44765,6 +45602,15 @@
       <c r="G108">
         <v>88164000</v>
       </c>
+      <c r="H108">
+        <v>0.22904869999999999</v>
+      </c>
+      <c r="I108">
+        <v>0.19504550000000001</v>
+      </c>
+      <c r="J108">
+        <v>64066000</v>
+      </c>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B109">
@@ -44785,6 +45631,15 @@
       <c r="G109">
         <v>88164000</v>
       </c>
+      <c r="H109">
+        <v>0.22966220000000001</v>
+      </c>
+      <c r="I109">
+        <v>0.19228590000000001</v>
+      </c>
+      <c r="J109">
+        <v>64238000</v>
+      </c>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B110">
@@ -44805,6 +45660,15 @@
       <c r="G110">
         <v>88164000</v>
       </c>
+      <c r="H110">
+        <v>0.22966220000000001</v>
+      </c>
+      <c r="I110">
+        <v>0.20629690000000001</v>
+      </c>
+      <c r="J110">
+        <v>64238000</v>
+      </c>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B111">
@@ -44825,6 +45689,15 @@
       <c r="G111">
         <v>88176000</v>
       </c>
+      <c r="H111">
+        <v>0.22966220000000001</v>
+      </c>
+      <c r="I111">
+        <v>0.1919776</v>
+      </c>
+      <c r="J111">
+        <v>64238000</v>
+      </c>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B112">
@@ -44845,8 +45718,17 @@
       <c r="G112">
         <v>88176000</v>
       </c>
-    </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H112">
+        <v>0.23031399999999999</v>
+      </c>
+      <c r="I112">
+        <v>0.19735839999999999</v>
+      </c>
+      <c r="J112">
+        <v>64421000</v>
+      </c>
+    </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B113">
         <v>110</v>
       </c>
@@ -44865,8 +45747,17 @@
       <c r="G113">
         <v>88176000</v>
       </c>
-    </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H113">
+        <v>0.23031399999999999</v>
+      </c>
+      <c r="I113">
+        <v>0.19345589999999999</v>
+      </c>
+      <c r="J113">
+        <v>64421000</v>
+      </c>
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B114">
         <v>111</v>
       </c>
@@ -44885,8 +45776,17 @@
       <c r="G114">
         <v>88176000</v>
       </c>
-    </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H114">
+        <v>0.23031399999999999</v>
+      </c>
+      <c r="I114">
+        <v>0.19479679999999999</v>
+      </c>
+      <c r="J114">
+        <v>64421000</v>
+      </c>
+    </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B115">
         <v>112</v>
       </c>
@@ -44905,8 +45805,17 @@
       <c r="G115">
         <v>88176000</v>
       </c>
-    </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H115">
+        <v>0.23031399999999999</v>
+      </c>
+      <c r="I115">
+        <v>0.19425139999999999</v>
+      </c>
+      <c r="J115">
+        <v>64421000</v>
+      </c>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B116">
         <v>113</v>
       </c>
@@ -44925,8 +45834,17 @@
       <c r="G116">
         <v>88176000</v>
       </c>
-    </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H116">
+        <v>0.23031399999999999</v>
+      </c>
+      <c r="I116">
+        <v>0.1958068</v>
+      </c>
+      <c r="J116">
+        <v>64421000</v>
+      </c>
+    </row>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B117">
         <v>114</v>
       </c>
@@ -44945,8 +45863,17 @@
       <c r="G117">
         <v>88176000</v>
       </c>
-    </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H117">
+        <v>0.23031399999999999</v>
+      </c>
+      <c r="I117">
+        <v>0.19650400000000001</v>
+      </c>
+      <c r="J117">
+        <v>64421000</v>
+      </c>
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B118">
         <v>115</v>
       </c>
@@ -44966,7 +45893,7 @@
         <v>88176000</v>
       </c>
     </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B119">
         <v>116</v>
       </c>
@@ -44986,7 +45913,7 @@
         <v>88176000</v>
       </c>
     </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B120">
         <v>117</v>
       </c>
@@ -45006,7 +45933,7 @@
         <v>88176000</v>
       </c>
     </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B121">
         <v>118</v>
       </c>
@@ -45026,7 +45953,7 @@
         <v>88176000</v>
       </c>
     </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B122">
         <v>119</v>
       </c>
@@ -45046,7 +45973,7 @@
         <v>88176000</v>
       </c>
     </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B123">
         <v>120</v>
       </c>
@@ -45066,7 +45993,7 @@
         <v>88176000</v>
       </c>
     </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B124">
         <v>121</v>
       </c>
@@ -45086,7 +46013,7 @@
         <v>88176000</v>
       </c>
     </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B125">
         <v>122</v>
       </c>
@@ -45106,7 +46033,7 @@
         <v>88176000</v>
       </c>
     </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B126">
         <v>123</v>
       </c>
@@ -45126,7 +46053,7 @@
         <v>88176000</v>
       </c>
     </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B127">
         <v>124</v>
       </c>
@@ -45146,7 +46073,7 @@
         <v>88176000</v>
       </c>
     </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B128">
         <v>125</v>
       </c>
@@ -48266,10 +49193,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N378"/>
+  <dimension ref="B1:Q378"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48284,15 +49211,18 @@
     <col min="9" max="9" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="31.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
       <c r="I1" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -48323,11 +49253,20 @@
       <c r="K2" t="s">
         <v>11</v>
       </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
       <c r="M2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>0</v>
       </c>
@@ -48358,15 +49297,24 @@
       <c r="K3">
         <v>7460000</v>
       </c>
+      <c r="L3">
+        <v>17000</v>
+      </c>
       <c r="M3">
-        <f>M9/6*0</f>
+        <v>17000</v>
+      </c>
+      <c r="N3">
+        <v>1076000</v>
+      </c>
+      <c r="P3">
+        <f>P9/6*0</f>
         <v>0</v>
       </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="Q3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4">
         <f>B3+1</f>
         <v>1</v>
@@ -48398,15 +49346,24 @@
       <c r="K4">
         <v>7916000</v>
       </c>
-      <c r="M4" s="4">
-        <f>M9/6*1</f>
+      <c r="L4">
+        <v>17000</v>
+      </c>
+      <c r="M4">
+        <v>17000</v>
+      </c>
+      <c r="N4">
+        <v>1076000</v>
+      </c>
+      <c r="P4" s="4">
+        <f>P9/6*1</f>
         <v>0.6887310280830149</v>
       </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="Q4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5">
         <f t="shared" ref="B5:B68" si="0">B4+1</f>
         <v>2</v>
@@ -48438,15 +49395,24 @@
       <c r="K5">
         <v>10860000</v>
       </c>
-      <c r="M5" s="3">
-        <f>M9/6*2</f>
+      <c r="L5">
+        <v>406000</v>
+      </c>
+      <c r="M5">
+        <v>17000</v>
+      </c>
+      <c r="N5">
+        <v>2901000</v>
+      </c>
+      <c r="P5" s="3">
+        <f>P9/6*2</f>
         <v>1.3774620561660298</v>
       </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="Q5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -48478,15 +49444,24 @@
       <c r="K6">
         <v>10860000</v>
       </c>
-      <c r="M6" s="3">
-        <f>M9/6*3</f>
+      <c r="L6">
+        <v>406000</v>
+      </c>
+      <c r="M6">
+        <v>17000</v>
+      </c>
+      <c r="N6">
+        <v>2901000</v>
+      </c>
+      <c r="P6" s="3">
+        <f>P9/6*3</f>
         <v>2.0661930842490448</v>
       </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="Q6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -48518,15 +49493,24 @@
       <c r="K7">
         <v>10860000</v>
       </c>
-      <c r="M7" s="3">
-        <f>M9/6*4</f>
+      <c r="L7">
+        <v>406000</v>
+      </c>
+      <c r="M7">
+        <v>17000</v>
+      </c>
+      <c r="N7">
+        <v>3306000</v>
+      </c>
+      <c r="P7" s="3">
+        <f>P9/6*4</f>
         <v>2.7549241123320596</v>
       </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="Q7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -48558,15 +49542,24 @@
       <c r="K8">
         <v>10860000</v>
       </c>
-      <c r="M8" s="3">
-        <f>M9/6*5</f>
+      <c r="L8">
+        <v>406000</v>
+      </c>
+      <c r="M8">
+        <v>17000</v>
+      </c>
+      <c r="N8">
+        <v>4279000</v>
+      </c>
+      <c r="P8" s="3">
+        <f>P9/6*5</f>
         <v>3.4436551404150744</v>
       </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="Q8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -48598,14 +49591,23 @@
       <c r="K9">
         <v>13198000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="L9">
+        <v>406000</v>
+      </c>
+      <c r="M9">
+        <v>17000</v>
+      </c>
+      <c r="N9">
+        <v>4189000</v>
+      </c>
+      <c r="P9" s="3">
         <v>4.1323861684980896</v>
       </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="Q9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -48637,8 +49639,17 @@
       <c r="K10">
         <v>13198000</v>
       </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <v>406000</v>
+      </c>
+      <c r="M10">
+        <v>17000</v>
+      </c>
+      <c r="N10">
+        <v>4871000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -48671,7 +49682,7 @@
         <v>13198000</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -48704,7 +49715,7 @@
         <v>13198000</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -48737,7 +49748,7 @@
         <v>13198000</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -48770,7 +49781,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -48803,7 +49814,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -51598,6 +52609,15 @@
       <c r="H100">
         <v>15103000</v>
       </c>
+      <c r="I100">
+        <v>38761000</v>
+      </c>
+      <c r="J100">
+        <v>17000</v>
+      </c>
+      <c r="K100">
+        <v>16165000</v>
+      </c>
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B101">
@@ -51622,6 +52642,15 @@
       <c r="H101">
         <v>15103000</v>
       </c>
+      <c r="I101">
+        <v>38761000</v>
+      </c>
+      <c r="J101">
+        <v>17000</v>
+      </c>
+      <c r="K101">
+        <v>16165000</v>
+      </c>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B102">
@@ -51646,6 +52675,15 @@
       <c r="H102">
         <v>15103000</v>
       </c>
+      <c r="I102">
+        <v>38761000</v>
+      </c>
+      <c r="J102">
+        <v>17000</v>
+      </c>
+      <c r="K102">
+        <v>16165000</v>
+      </c>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B103">
@@ -51670,6 +52708,15 @@
       <c r="H103">
         <v>15103000</v>
       </c>
+      <c r="I103">
+        <v>38761000</v>
+      </c>
+      <c r="J103">
+        <v>17000</v>
+      </c>
+      <c r="K103">
+        <v>16165000</v>
+      </c>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B104">
@@ -51694,6 +52741,15 @@
       <c r="H104">
         <v>15103000</v>
       </c>
+      <c r="I104">
+        <v>38761000</v>
+      </c>
+      <c r="J104">
+        <v>17000</v>
+      </c>
+      <c r="K104">
+        <v>16165000</v>
+      </c>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B105">
@@ -51718,6 +52774,15 @@
       <c r="H105">
         <v>15103000</v>
       </c>
+      <c r="I105">
+        <v>38761000</v>
+      </c>
+      <c r="J105">
+        <v>3377000</v>
+      </c>
+      <c r="K105">
+        <v>16165000</v>
+      </c>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B106">
@@ -51742,6 +52807,15 @@
       <c r="H106">
         <v>15103000</v>
       </c>
+      <c r="I106">
+        <v>38761000</v>
+      </c>
+      <c r="J106">
+        <v>3377000</v>
+      </c>
+      <c r="K106">
+        <v>16165000</v>
+      </c>
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B107">
@@ -51766,6 +52840,15 @@
       <c r="H107">
         <v>15103000</v>
       </c>
+      <c r="I107">
+        <v>39142000</v>
+      </c>
+      <c r="J107">
+        <v>3377000</v>
+      </c>
+      <c r="K107">
+        <v>16165000</v>
+      </c>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B108">
@@ -51790,6 +52873,15 @@
       <c r="H108">
         <v>15103000</v>
       </c>
+      <c r="I108">
+        <v>39208000</v>
+      </c>
+      <c r="J108">
+        <v>3377000</v>
+      </c>
+      <c r="K108">
+        <v>16048000</v>
+      </c>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B109">
@@ -51814,6 +52906,15 @@
       <c r="H109">
         <v>15103000</v>
       </c>
+      <c r="I109">
+        <v>39208000</v>
+      </c>
+      <c r="J109">
+        <v>3711000</v>
+      </c>
+      <c r="K109">
+        <v>16048000</v>
+      </c>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B110">
@@ -51838,6 +52939,15 @@
       <c r="H110">
         <v>15103000</v>
       </c>
+      <c r="I110">
+        <v>39208000</v>
+      </c>
+      <c r="J110">
+        <v>3711000</v>
+      </c>
+      <c r="K110">
+        <v>16048000</v>
+      </c>
     </row>
     <row r="111" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B111">
@@ -51862,6 +52972,15 @@
       <c r="H111">
         <v>15103000</v>
       </c>
+      <c r="I111">
+        <v>39208000</v>
+      </c>
+      <c r="J111">
+        <v>3711000</v>
+      </c>
+      <c r="K111">
+        <v>16048000</v>
+      </c>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B112">
@@ -51886,8 +53005,17 @@
       <c r="H112">
         <v>15103000</v>
       </c>
-    </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I112">
+        <v>39208000</v>
+      </c>
+      <c r="J112">
+        <v>4307000</v>
+      </c>
+      <c r="K112">
+        <v>16048000</v>
+      </c>
+    </row>
+    <row r="113" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B113">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -51910,8 +53038,17 @@
       <c r="H113">
         <v>15103000</v>
       </c>
-    </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I113">
+        <v>39208000</v>
+      </c>
+      <c r="J113">
+        <v>4307000</v>
+      </c>
+      <c r="K113">
+        <v>16048000</v>
+      </c>
+    </row>
+    <row r="114" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B114">
         <f t="shared" si="1"/>
         <v>111</v>
@@ -51934,8 +53071,17 @@
       <c r="H114">
         <v>15103000</v>
       </c>
-    </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I114">
+        <v>39208000</v>
+      </c>
+      <c r="J114">
+        <v>4307000</v>
+      </c>
+      <c r="K114">
+        <v>16048000</v>
+      </c>
+    </row>
+    <row r="115" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B115">
         <f t="shared" si="1"/>
         <v>112</v>
@@ -51958,8 +53104,17 @@
       <c r="H115">
         <v>15103000</v>
       </c>
-    </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I115">
+        <v>39208000</v>
+      </c>
+      <c r="J115">
+        <v>4307000</v>
+      </c>
+      <c r="K115">
+        <v>16048000</v>
+      </c>
+    </row>
+    <row r="116" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B116">
         <f t="shared" si="1"/>
         <v>113</v>
@@ -51982,8 +53137,17 @@
       <c r="H116">
         <v>15103000</v>
       </c>
-    </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I116">
+        <v>39208000</v>
+      </c>
+      <c r="J116">
+        <v>4307000</v>
+      </c>
+      <c r="K116">
+        <v>16048000</v>
+      </c>
+    </row>
+    <row r="117" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B117">
         <f t="shared" si="1"/>
         <v>114</v>
@@ -52006,8 +53170,17 @@
       <c r="H117">
         <v>14777000</v>
       </c>
-    </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I117">
+        <v>39208000</v>
+      </c>
+      <c r="J117">
+        <v>4307000</v>
+      </c>
+      <c r="K117">
+        <v>16048000</v>
+      </c>
+    </row>
+    <row r="118" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B118">
         <f t="shared" si="1"/>
         <v>115</v>
@@ -52031,7 +53204,7 @@
         <v>14777000</v>
       </c>
     </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B119">
         <f t="shared" si="1"/>
         <v>116</v>
@@ -52055,7 +53228,7 @@
         <v>14513000</v>
       </c>
     </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B120">
         <f t="shared" si="1"/>
         <v>117</v>
@@ -52079,7 +53252,7 @@
         <v>14513000</v>
       </c>
     </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B121">
         <f t="shared" si="1"/>
         <v>118</v>
@@ -52103,7 +53276,7 @@
         <v>14513000</v>
       </c>
     </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B122">
         <f t="shared" si="1"/>
         <v>119</v>
@@ -52127,7 +53300,7 @@
         <v>14513000</v>
       </c>
     </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B123">
         <f t="shared" si="1"/>
         <v>120</v>
@@ -52151,7 +53324,7 @@
         <v>14513000</v>
       </c>
     </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B124">
         <f t="shared" si="1"/>
         <v>121</v>
@@ -52175,7 +53348,7 @@
         <v>14513000</v>
       </c>
     </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B125">
         <f t="shared" si="1"/>
         <v>122</v>
@@ -52199,7 +53372,7 @@
         <v>14513000</v>
       </c>
     </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B126">
         <f t="shared" si="1"/>
         <v>123</v>
@@ -52223,7 +53396,7 @@
         <v>14513000</v>
       </c>
     </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B127">
         <f t="shared" si="1"/>
         <v>124</v>
@@ -52247,7 +53420,7 @@
         <v>14513000</v>
       </c>
     </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B128">
         <f t="shared" si="1"/>
         <v>125</v>

--- a/Scriptie - Experiment resultaten.xlsx
+++ b/Scriptie - Experiment resultaten.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-150" yWindow="-480" windowWidth="29100" windowHeight="13455"/>
+    <workbookView xWindow="-150" yWindow="-420" windowWidth="29100" windowHeight="13395"/>
   </bookViews>
   <sheets>
     <sheet name="Fitnesses &amp; Outputs" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>Generatie</t>
   </si>
@@ -55,15 +55,6 @@
     <t>Sinus ovenbuffers na</t>
   </si>
   <si>
-    <t>Nulmeting Sinus Fitness</t>
-  </si>
-  <si>
-    <t>Nulmeting Sinus Gem. Fitness</t>
-  </si>
-  <si>
-    <t>Nulmeting Sinus Output</t>
-  </si>
-  <si>
     <t>Nulmeting Sinus persbuffers na</t>
   </si>
   <si>
@@ -79,22 +70,40 @@
     <t>Nulmeting --&gt;</t>
   </si>
   <si>
-    <t>Lineair persbuffers na</t>
+    <t>5% synapses Fitness</t>
   </si>
   <si>
-    <t>Lineair persbuffers voor</t>
+    <t>5% synapses Gem. Fitness</t>
   </si>
   <si>
-    <t>Lineair ovenbuffers na</t>
+    <t>5% synapses Output</t>
   </si>
   <si>
-    <t>Nulmeting Lineair Fitness</t>
+    <t>100% synapses Fitness</t>
   </si>
   <si>
-    <t>Nulmeting Lineair Gem. Fitness</t>
+    <t>100% synases Gem. Fitness</t>
   </si>
   <si>
-    <t>Nulmeting Lineair Output</t>
+    <t>100% synapses Output</t>
+  </si>
+  <si>
+    <t>5% synapses persbuffers na</t>
+  </si>
+  <si>
+    <t>5% synapses persbuffers voor</t>
+  </si>
+  <si>
+    <t>5% synapses ovenbuffers na</t>
+  </si>
+  <si>
+    <t>100% synapses persbuffers na</t>
+  </si>
+  <si>
+    <t>100% synapses persbuffers voor</t>
+  </si>
+  <si>
+    <t>100% synapses ovenbuffers na</t>
   </si>
 </sst>
 </file>
@@ -8135,8 +8144,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="39552512"/>
-        <c:axId val="39554432"/>
+        <c:axId val="143058048"/>
+        <c:axId val="143059968"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9817,11 +9826,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="39575552"/>
-        <c:axId val="39560704"/>
+        <c:axId val="85990784"/>
+        <c:axId val="85988480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="39552512"/>
+        <c:axId val="143058048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9861,7 +9870,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39554432"/>
+        <c:crossAx val="143059968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9871,7 +9880,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39554432"/>
+        <c:axId val="143059968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9911,12 +9920,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39552512"/>
+        <c:crossAx val="143058048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="39560704"/>
+        <c:axId val="85988480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9957,7 +9966,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39575552"/>
+        <c:crossAx val="85990784"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -9978,7 +9987,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:catAx>
-        <c:axId val="39575552"/>
+        <c:axId val="85990784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9988,7 +9997,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39560704"/>
+        <c:crossAx val="85988480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10061,7 +10070,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Nulmeting Sinus Fitness</c:v>
+                  <c:v>5% synapses Fitness</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10903,7 +10912,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Nulmeting Sinus Gem. Fitness</c:v>
+                  <c:v>5% synapses Gem. Fitness</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11285,7 +11294,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Nulmeting Lineair Fitness</c:v>
+                  <c:v>100% synapses Fitness</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11310,25 +11319,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1051189</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1959719</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.1959719</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.1966253</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.19916629999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.199181</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.20088200000000001</c:v>
+                  <c:v>0.22023010000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11344,7 +11335,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Nulmeting Lineair Gem. Fitness</c:v>
+                  <c:v>100% synases Gem. Fitness</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11371,25 +11362,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.3060959999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.6589019999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.6282000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.1174762</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.12069439999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.12671389999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.12660060000000001</c:v>
+                  <c:v>0.21034140000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11406,8 +11379,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="39882752"/>
-        <c:axId val="39884672"/>
+        <c:axId val="86036864"/>
+        <c:axId val="86038784"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -11421,7 +11394,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Nulmeting Sinus Output</c:v>
+                  <c:v>5% synapses Output</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11429,9 +11402,7 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="F79646">
-                  <a:alpha val="50000"/>
-                </a:srgbClr>
+                <a:srgbClr val="F79646"/>
               </a:solidFill>
               <a:prstDash val="dash"/>
             </a:ln>
@@ -11804,7 +11775,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Nulmeting Lineair Output</c:v>
+                  <c:v>100% synapses Output</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11812,9 +11783,7 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="FF0000">
-                  <a:alpha val="50000"/>
-                </a:srgbClr>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:prstDash val="dash"/>
             </a:ln>
@@ -11832,25 +11801,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29372000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>54760000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>54760000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>54943000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>55654000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>55658000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>56134000</c:v>
+                  <c:v>61540000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11867,11 +11818,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="39897344"/>
-        <c:axId val="39895040"/>
+        <c:axId val="96213632"/>
+        <c:axId val="96211328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="39882752"/>
+        <c:axId val="86036864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11911,7 +11862,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39884672"/>
+        <c:crossAx val="86038784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11921,7 +11872,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39884672"/>
+        <c:axId val="86038784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11961,12 +11912,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39882752"/>
+        <c:crossAx val="86036864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="39895040"/>
+        <c:axId val="96211328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12007,7 +11958,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39897344"/>
+        <c:crossAx val="96213632"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -12018,7 +11969,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:catAx>
-        <c:axId val="39897344"/>
+        <c:axId val="96213632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12028,7 +11979,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39895040"/>
+        <c:crossAx val="96211328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -23999,8 +23950,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="163234560"/>
-        <c:axId val="163236480"/>
+        <c:axId val="97870592"/>
+        <c:axId val="97872512"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -24061,11 +24012,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100666368"/>
-        <c:axId val="100664448"/>
+        <c:axId val="97889280"/>
+        <c:axId val="97887360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="163234560"/>
+        <c:axId val="97870592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24105,7 +24056,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163236480"/>
+        <c:crossAx val="97872512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -24115,7 +24066,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="163236480"/>
+        <c:axId val="97872512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24155,7 +24106,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163234560"/>
+        <c:crossAx val="97870592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -24181,7 +24132,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="100664448"/>
+        <c:axId val="97887360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.29577009361005"/>
@@ -24224,14 +24175,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100666368"/>
+        <c:crossAx val="97889280"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.25"/>
         <c:minorUnit val="5.000000000000001E-2"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="100666368"/>
+        <c:axId val="97889280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24240,7 +24191,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100664448"/>
+        <c:crossAx val="97887360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -24299,7 +24250,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sinus persbuffers na</c:v>
+                  <c:v>5% synapses persbuffers na</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -25143,7 +25094,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sinus persbuffers voor</c:v>
+                  <c:v>5% synapses persbuffers voor</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -25987,7 +25938,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sinus ovenbuffers na</c:v>
+                  <c:v>5% synapses ovenbuffers na</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -26831,7 +26782,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Lineair persbuffers na</c:v>
+                  <c:v>100% synapses persbuffers na</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -26853,28 +26804,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="151"/>
                 <c:pt idx="0">
-                  <c:v>17000</c:v>
+                  <c:v>2324000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>406000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>406000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>406000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>406000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>406000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>406000</c:v>
+                  <c:v>2362000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26890,7 +26823,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Lineair persbuffers voor</c:v>
+                  <c:v>100% synapses persbuffers voor</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -26912,28 +26845,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="151"/>
                 <c:pt idx="0">
-                  <c:v>17000</c:v>
+                  <c:v>1773000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>17000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>17000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>17000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>17000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>17000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>17000</c:v>
+                  <c:v>1884000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26949,7 +26864,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Lineair ovenbuffers na</c:v>
+                  <c:v>100% synapses ovenbuffers na</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -26971,28 +26886,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="151"/>
                 <c:pt idx="0">
-                  <c:v>1076000</c:v>
+                  <c:v>545000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1076000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2901000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2901000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3306000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4279000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4189000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4871000</c:v>
+                  <c:v>506000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -27009,8 +26906,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100700928"/>
-        <c:axId val="100702848"/>
+        <c:axId val="98603776"/>
+        <c:axId val="98605696"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -27071,11 +26968,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100719616"/>
-        <c:axId val="100717696"/>
+        <c:axId val="98618368"/>
+        <c:axId val="98616448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100700928"/>
+        <c:axId val="98603776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -27115,7 +27012,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100702848"/>
+        <c:crossAx val="98605696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -27125,7 +27022,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100702848"/>
+        <c:axId val="98605696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -27165,7 +27062,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100700928"/>
+        <c:crossAx val="98603776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -27191,7 +27088,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="100717696"/>
+        <c:axId val="98616448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4.1323861684980878"/>
@@ -27234,14 +27131,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100719616"/>
+        <c:crossAx val="98618368"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
         <c:minorUnit val="0.25"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="100719616"/>
+        <c:axId val="98618368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -27250,7 +27147,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100717696"/>
+        <c:crossAx val="98616448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -39208,8 +39105,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101643776"/>
-        <c:axId val="101645696"/>
+        <c:axId val="98010624"/>
+        <c:axId val="98012544"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -39270,11 +39167,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100806656"/>
-        <c:axId val="100800384"/>
+        <c:axId val="98033664"/>
+        <c:axId val="98019200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101643776"/>
+        <c:axId val="98010624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -39307,14 +39204,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101645696"/>
+        <c:crossAx val="98012544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -39324,7 +39220,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101645696"/>
+        <c:axId val="98012544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -39357,20 +39253,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101643776"/>
+        <c:crossAx val="98010624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
           <c:builtInUnit val="millions"/>
           <c:dispUnitsLbl>
-            <c:layout/>
             <c:tx>
               <c:rich>
                 <a:bodyPr rot="0" vert="horz"/>
@@ -39390,7 +39284,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="100800384"/>
+        <c:axId val="98019200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.55098482246641212"/>
@@ -39425,21 +39319,20 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100806656"/>
+        <c:crossAx val="98033664"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
         <c:minorUnit val="2.0000000000000004E-2"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="100806656"/>
+        <c:axId val="98033664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -39448,7 +39341,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100800384"/>
+        <c:crossAx val="98019200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -39458,7 +39351,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -41365,8 +41257,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100846208"/>
-        <c:axId val="100856576"/>
+        <c:axId val="98397184"/>
+        <c:axId val="98407552"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -41427,11 +41319,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101655680"/>
-        <c:axId val="100858880"/>
+        <c:axId val="98416128"/>
+        <c:axId val="98409856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100846208"/>
+        <c:axId val="98397184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -41464,14 +41356,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100856576"/>
+        <c:crossAx val="98407552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -41481,7 +41372,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100856576"/>
+        <c:axId val="98407552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -41514,20 +41405,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100846208"/>
+        <c:crossAx val="98397184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
           <c:builtInUnit val="millions"/>
           <c:dispUnitsLbl>
-            <c:layout/>
             <c:tx>
               <c:rich>
                 <a:bodyPr rot="0" vert="horz"/>
@@ -41547,7 +41436,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="100858880"/>
+        <c:axId val="98409856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.55098482246641212"/>
@@ -41582,21 +41471,20 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101655680"/>
+        <c:crossAx val="98416128"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
         <c:minorUnit val="2.0000000000000004E-2"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="101655680"/>
+        <c:axId val="98416128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -41605,7 +41493,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100858880"/>
+        <c:crossAx val="98409856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -41615,7 +41503,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -41670,15 +41557,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -42408,7 +42295,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M378"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
@@ -42420,12 +42307,12 @@
     <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
@@ -42448,22 +42335,22 @@
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
@@ -42533,13 +42420,13 @@
         <v>32333000</v>
       </c>
       <c r="K4">
-        <v>0.1051189</v>
+        <v>0.22023010000000001</v>
       </c>
       <c r="L4">
-        <v>9.3060959999999998E-2</v>
+        <v>0.21034140000000001</v>
       </c>
       <c r="M4">
-        <v>29372000</v>
+        <v>61540000</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
@@ -42570,15 +42457,6 @@
       <c r="J5">
         <v>32946000</v>
       </c>
-      <c r="K5">
-        <v>0.1959719</v>
-      </c>
-      <c r="L5">
-        <v>9.6589019999999998E-2</v>
-      </c>
-      <c r="M5">
-        <v>54760000</v>
-      </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6">
@@ -42608,15 +42486,6 @@
       <c r="J6">
         <v>32946000</v>
       </c>
-      <c r="K6">
-        <v>0.1959719</v>
-      </c>
-      <c r="L6">
-        <v>9.6282000000000006E-2</v>
-      </c>
-      <c r="M6">
-        <v>54760000</v>
-      </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7">
@@ -42646,15 +42515,6 @@
       <c r="J7">
         <v>32946000</v>
       </c>
-      <c r="K7">
-        <v>0.1966253</v>
-      </c>
-      <c r="L7">
-        <v>0.1174762</v>
-      </c>
-      <c r="M7">
-        <v>54943000</v>
-      </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8">
@@ -42684,15 +42544,6 @@
       <c r="J8">
         <v>32946000</v>
       </c>
-      <c r="K8">
-        <v>0.19916629999999999</v>
-      </c>
-      <c r="L8">
-        <v>0.12069439999999999</v>
-      </c>
-      <c r="M8">
-        <v>55654000</v>
-      </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9">
@@ -42722,15 +42573,6 @@
       <c r="J9">
         <v>32971000</v>
       </c>
-      <c r="K9">
-        <v>0.199181</v>
-      </c>
-      <c r="L9">
-        <v>0.12671389999999999</v>
-      </c>
-      <c r="M9">
-        <v>55658000</v>
-      </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10">
@@ -42759,15 +42601,6 @@
       </c>
       <c r="J10">
         <v>32971000</v>
-      </c>
-      <c r="K10">
-        <v>0.20088200000000001</v>
-      </c>
-      <c r="L10">
-        <v>0.12660060000000001</v>
-      </c>
-      <c r="M10">
-        <v>56134000</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
@@ -49208,18 +49041,18 @@
     <col min="6" max="6" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17" x14ac:dyDescent="0.25">
       <c r="I1" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
@@ -49245,25 +49078,25 @@
         <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="L2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="P2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
@@ -49298,13 +49131,13 @@
         <v>7460000</v>
       </c>
       <c r="L3">
-        <v>17000</v>
+        <v>2324000</v>
       </c>
       <c r="M3">
-        <v>17000</v>
+        <v>1773000</v>
       </c>
       <c r="N3">
-        <v>1076000</v>
+        <v>545000</v>
       </c>
       <c r="P3">
         <f>P9/6*0</f>
@@ -49347,13 +49180,13 @@
         <v>7916000</v>
       </c>
       <c r="L4">
-        <v>17000</v>
+        <v>2362000</v>
       </c>
       <c r="M4">
-        <v>17000</v>
+        <v>1884000</v>
       </c>
       <c r="N4">
-        <v>1076000</v>
+        <v>506000</v>
       </c>
       <c r="P4" s="4">
         <f>P9/6*1</f>
@@ -49395,15 +49228,6 @@
       <c r="K5">
         <v>10860000</v>
       </c>
-      <c r="L5">
-        <v>406000</v>
-      </c>
-      <c r="M5">
-        <v>17000</v>
-      </c>
-      <c r="N5">
-        <v>2901000</v>
-      </c>
       <c r="P5" s="3">
         <f>P9/6*2</f>
         <v>1.3774620561660298</v>
@@ -49444,15 +49268,6 @@
       <c r="K6">
         <v>10860000</v>
       </c>
-      <c r="L6">
-        <v>406000</v>
-      </c>
-      <c r="M6">
-        <v>17000</v>
-      </c>
-      <c r="N6">
-        <v>2901000</v>
-      </c>
       <c r="P6" s="3">
         <f>P9/6*3</f>
         <v>2.0661930842490448</v>
@@ -49493,15 +49308,6 @@
       <c r="K7">
         <v>10860000</v>
       </c>
-      <c r="L7">
-        <v>406000</v>
-      </c>
-      <c r="M7">
-        <v>17000</v>
-      </c>
-      <c r="N7">
-        <v>3306000</v>
-      </c>
       <c r="P7" s="3">
         <f>P9/6*4</f>
         <v>2.7549241123320596</v>
@@ -49542,15 +49348,6 @@
       <c r="K8">
         <v>10860000</v>
       </c>
-      <c r="L8">
-        <v>406000</v>
-      </c>
-      <c r="M8">
-        <v>17000</v>
-      </c>
-      <c r="N8">
-        <v>4279000</v>
-      </c>
       <c r="P8" s="3">
         <f>P9/6*5</f>
         <v>3.4436551404150744</v>
@@ -49591,15 +49388,6 @@
       <c r="K9">
         <v>13198000</v>
       </c>
-      <c r="L9">
-        <v>406000</v>
-      </c>
-      <c r="M9">
-        <v>17000</v>
-      </c>
-      <c r="N9">
-        <v>4189000</v>
-      </c>
       <c r="P9" s="3">
         <v>4.1323861684980896</v>
       </c>
@@ -49638,15 +49426,6 @@
       </c>
       <c r="K10">
         <v>13198000</v>
-      </c>
-      <c r="L10">
-        <v>406000</v>
-      </c>
-      <c r="M10">
-        <v>17000</v>
-      </c>
-      <c r="N10">
-        <v>4871000</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
@@ -57588,16 +57367,16 @@
         <v>11</v>
       </c>
       <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" t="s">
         <v>15</v>
-      </c>
-      <c r="J2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">

--- a/Scriptie - Experiment resultaten.xlsx
+++ b/Scriptie - Experiment resultaten.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-150" yWindow="-420" windowWidth="29100" windowHeight="13395"/>
+    <workbookView xWindow="-150" yWindow="-360" windowWidth="29100" windowHeight="13335"/>
   </bookViews>
   <sheets>
     <sheet name="Fitnesses &amp; Outputs" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>Generatie</t>
   </si>
@@ -70,40 +70,43 @@
     <t>Nulmeting --&gt;</t>
   </si>
   <si>
-    <t>5% synapses Fitness</t>
+    <t>Werkelijke Output</t>
   </si>
   <si>
-    <t>5% synapses Gem. Fitness</t>
+    <t>Minimale buffers Fitness</t>
   </si>
   <si>
-    <t>5% synapses Output</t>
+    <t>Minimale buffers Gem. Fitness</t>
   </si>
   <si>
-    <t>100% synapses Fitness</t>
+    <t>Minimale buffers Output</t>
   </si>
   <si>
-    <t>100% synases Gem. Fitness</t>
+    <t>Willekeurige buffers Fitness</t>
   </si>
   <si>
-    <t>100% synapses Output</t>
+    <t>Willekeurige buffers Gem. Fitness</t>
   </si>
   <si>
-    <t>5% synapses persbuffers na</t>
+    <t>Willekeurige buffers Output</t>
   </si>
   <si>
-    <t>5% synapses persbuffers voor</t>
+    <t>Minimale persbuffers na</t>
   </si>
   <si>
-    <t>5% synapses ovenbuffers na</t>
+    <t>Minimale persbuffers voor</t>
   </si>
   <si>
-    <t>100% synapses persbuffers na</t>
+    <t>Minimale ovenbuffers na</t>
   </si>
   <si>
-    <t>100% synapses persbuffers voor</t>
+    <t>Willekeurige persbuffers na</t>
   </si>
   <si>
-    <t>100% synapses ovenbuffers na</t>
+    <t>Willekeurige persbuffers voor</t>
+  </si>
+  <si>
+    <t>Willekeurige ovenbuffers na</t>
   </si>
 </sst>
 </file>
@@ -8144,8 +8147,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="143058048"/>
-        <c:axId val="143059968"/>
+        <c:axId val="34498048"/>
+        <c:axId val="34499968"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8176,6 +8179,21 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:name>Sinus Output Trend</c:name>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000">
+                    <a:alpha val="50000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:numRef>
               <c:f>'Fitnesses &amp; Outputs'!$B$3:$B$378</c:f>
@@ -9810,6 +9828,1172 @@
                 </c:pt>
                 <c:pt idx="163">
                   <c:v>88214000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Fitnesses &amp; Outputs'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Werkelijke Output</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Fitnesses &amp; Outputs'!$A$3:$A$378</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="376"/>
+                <c:pt idx="0">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>95907961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9826,11 +11010,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="85990784"/>
-        <c:axId val="85988480"/>
+        <c:axId val="34512896"/>
+        <c:axId val="34510336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="143058048"/>
+        <c:axId val="34498048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9870,7 +11054,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143059968"/>
+        <c:crossAx val="34499968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9880,7 +11064,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="143059968"/>
+        <c:axId val="34499968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9920,12 +11104,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143058048"/>
+        <c:crossAx val="34498048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="85988480"/>
+        <c:axId val="34510336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9966,7 +11150,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85990784"/>
+        <c:crossAx val="34512896"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -9987,7 +11171,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:catAx>
-        <c:axId val="85990784"/>
+        <c:axId val="34512896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9997,7 +11181,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85988480"/>
+        <c:crossAx val="34510336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10070,7 +11254,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5% synapses Fitness</c:v>
+                  <c:v>Minimale buffers Fitness</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10912,7 +12096,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5% synapses Gem. Fitness</c:v>
+                  <c:v>Minimale buffers Gem. Fitness</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11294,7 +12478,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>100% synapses Fitness</c:v>
+                  <c:v>Willekeurige buffers Fitness</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11321,6 +12505,72 @@
                 <c:pt idx="1">
                   <c:v>0.22023010000000001</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.22071979999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22228249999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22252449999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2229429</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.22338079999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2253233</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2256068</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.22594259999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.22594259999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.2261676</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.22723889999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.22800770000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.22841059999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.22841059999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.22937869999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.22937869999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.22978580000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.23006109999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.23014709999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.2303772</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.23065949999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23065949999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -11335,7 +12585,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>100% synases Gem. Fitness</c:v>
+                  <c:v>Willekeurige buffers Gem. Fitness</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11364,6 +12614,72 @@
                 <c:pt idx="1">
                   <c:v>0.21034140000000001</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2124559</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21138199999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2127618</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.21190490000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.21525569999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.21352779999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.21631439999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.21356820000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.21646090000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.22100819999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.2191775</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.2221292</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.2197924</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.22390689999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.22300790000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.2237566</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.22455030000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.22093160000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.22451299999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.2230463</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22434680000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.22518089999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -11379,8 +12695,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="86036864"/>
-        <c:axId val="86038784"/>
+        <c:axId val="145724160"/>
+        <c:axId val="145726080"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -11394,7 +12710,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5% synapses Output</c:v>
+                  <c:v>Minimale buffers Output</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11410,6 +12726,19 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:name>Minimale buffers Output Trend</c:name>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="F79646"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:val>
             <c:numRef>
               <c:f>'Fitnesses &amp; Outputs'!$J$3:$J$153</c:f>
@@ -11775,7 +13104,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>100% synapses Output</c:v>
+                  <c:v>Willekeurige buffers Output</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11791,6 +13120,19 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:name>Willekeurige buffers Output Trend</c:name>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:val>
             <c:numRef>
               <c:f>'Fitnesses &amp; Outputs'!$M$3:$M$153</c:f>
@@ -11802,6 +13144,563 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>61540000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61677000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62114000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62182000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>62298000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62421000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>62964000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>63043000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>63137000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>63137000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>63199000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>63498000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>63713000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>63826000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>63826000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>64096000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>64096000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>64210000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>64287000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>64312000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>64375000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>64455000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>64455000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Fitnesses &amp; Outputs'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Werkelijke Output</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="7030A0">
+                  <a:alpha val="50000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Fitnesses &amp; Outputs'!$A$3:$A$153</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="151"/>
+                <c:pt idx="0">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>95907961</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>95907961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11818,11 +13717,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="96213632"/>
-        <c:axId val="96211328"/>
+        <c:axId val="145742848"/>
+        <c:axId val="145740544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="86036864"/>
+        <c:axId val="145724160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11862,17 +13761,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86038784"/>
+        <c:crossAx val="145726080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:tickLblSkip val="5"/>
-        <c:tickMarkSkip val="5"/>
+        <c:tickLblSkip val="10"/>
+        <c:tickMarkSkip val="10"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86038784"/>
+        <c:axId val="145726080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11912,12 +13811,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86036864"/>
+        <c:crossAx val="145724160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="96211328"/>
+        <c:axId val="145740544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11958,7 +13857,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96213632"/>
+        <c:crossAx val="145742848"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -11969,7 +13868,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:catAx>
-        <c:axId val="96213632"/>
+        <c:axId val="145742848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11979,7 +13878,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96211328"/>
+        <c:crossAx val="145740544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -23950,8 +25849,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="97870592"/>
-        <c:axId val="97872512"/>
+        <c:axId val="97028736"/>
+        <c:axId val="97047296"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -24012,11 +25911,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="97889280"/>
-        <c:axId val="97887360"/>
+        <c:axId val="97055872"/>
+        <c:axId val="97049600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="97870592"/>
+        <c:axId val="97028736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24056,7 +25955,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97872512"/>
+        <c:crossAx val="97047296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -24066,7 +25965,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97872512"/>
+        <c:axId val="97047296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24106,7 +26005,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97870592"/>
+        <c:crossAx val="97028736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -24132,7 +26031,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="97887360"/>
+        <c:axId val="97049600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.29577009361005"/>
@@ -24175,14 +26074,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97889280"/>
+        <c:crossAx val="97055872"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.25"/>
         <c:minorUnit val="5.000000000000001E-2"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="97889280"/>
+        <c:axId val="97055872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24191,7 +26090,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97887360"/>
+        <c:crossAx val="97049600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -24250,7 +26149,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5% synapses persbuffers na</c:v>
+                  <c:v>Minimale persbuffers na</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -25094,7 +26993,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5% synapses persbuffers voor</c:v>
+                  <c:v>Minimale persbuffers voor</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -25938,7 +27837,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5% synapses ovenbuffers na</c:v>
+                  <c:v>Minimale ovenbuffers na</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -26782,7 +28681,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>100% synapses persbuffers na</c:v>
+                  <c:v>Willekeurige persbuffers na</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -26809,6 +28708,72 @@
                 <c:pt idx="1">
                   <c:v>2362000</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>2494000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2788000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2899000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2094000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2631000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2807000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2807000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2835000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2835000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1834000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1524000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1664000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1612000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1612000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1664000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1664000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1943000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1943000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2788000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1943000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2415000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2415000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -26823,7 +28788,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>100% synapses persbuffers voor</c:v>
+                  <c:v>Willekeurige persbuffers voor</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -26850,6 +28815,72 @@
                 <c:pt idx="1">
                   <c:v>1884000</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>1884000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1884000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2131000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1820000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1866000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1866000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1655000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1655000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1655000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1994000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1994000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1994000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2399000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2399000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1899000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1899000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1830000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1906000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1836000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1604000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2025000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2025000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -26864,7 +28895,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>100% synapses ovenbuffers na</c:v>
+                  <c:v>Willekeurige ovenbuffers na</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -26891,6 +28922,72 @@
                 <c:pt idx="1">
                   <c:v>506000</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>506000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>506000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>506000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>798000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>775000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>775000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>775000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>899000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>899000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>799000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>799000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>799000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>799000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>799000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>799000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>799000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>799000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>799000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>869000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>799000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>880000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>880000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -26906,8 +29003,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="98603776"/>
-        <c:axId val="98605696"/>
+        <c:axId val="97228288"/>
+        <c:axId val="97230208"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -26968,11 +29065,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="98618368"/>
-        <c:axId val="98616448"/>
+        <c:axId val="97255424"/>
+        <c:axId val="97249152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98603776"/>
+        <c:axId val="97228288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -27012,17 +29109,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98605696"/>
+        <c:crossAx val="97230208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:tickLblSkip val="5"/>
-        <c:tickMarkSkip val="5"/>
+        <c:tickLblSkip val="10"/>
+        <c:tickMarkSkip val="10"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98605696"/>
+        <c:axId val="97230208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -27062,7 +29159,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98603776"/>
+        <c:crossAx val="97228288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -27088,7 +29185,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="98616448"/>
+        <c:axId val="97249152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4.1323861684980878"/>
@@ -27131,14 +29228,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98618368"/>
+        <c:crossAx val="97255424"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
         <c:minorUnit val="0.25"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="98618368"/>
+        <c:axId val="97255424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -27147,7 +29244,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98616448"/>
+        <c:crossAx val="97249152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -39105,8 +41202,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="98010624"/>
-        <c:axId val="98012544"/>
+        <c:axId val="97339264"/>
+        <c:axId val="97353728"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -39167,11 +41264,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="98033664"/>
-        <c:axId val="98019200"/>
+        <c:axId val="97362304"/>
+        <c:axId val="97356032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98010624"/>
+        <c:axId val="97339264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -39210,7 +41307,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98012544"/>
+        <c:crossAx val="97353728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -39220,7 +41317,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98012544"/>
+        <c:axId val="97353728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -39259,7 +41356,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98010624"/>
+        <c:crossAx val="97339264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -39284,7 +41381,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="98019200"/>
+        <c:axId val="97356032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.55098482246641212"/>
@@ -39325,14 +41422,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98033664"/>
+        <c:crossAx val="97362304"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
         <c:minorUnit val="2.0000000000000004E-2"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="98033664"/>
+        <c:axId val="97362304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -39341,7 +41438,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98019200"/>
+        <c:crossAx val="97356032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -41257,8 +43354,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="98397184"/>
-        <c:axId val="98407552"/>
+        <c:axId val="97780096"/>
+        <c:axId val="97782016"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -41319,11 +43416,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="98416128"/>
-        <c:axId val="98409856"/>
+        <c:axId val="97794688"/>
+        <c:axId val="97792768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98397184"/>
+        <c:axId val="97780096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -41362,7 +43459,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98407552"/>
+        <c:crossAx val="97782016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -41372,7 +43469,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98407552"/>
+        <c:axId val="97782016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -41411,7 +43508,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98397184"/>
+        <c:crossAx val="97780096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -41436,7 +43533,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="98409856"/>
+        <c:axId val="97792768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.55098482246641212"/>
@@ -41477,14 +43574,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98416128"/>
+        <c:crossAx val="97794688"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
         <c:minorUnit val="2.0000000000000004E-2"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="98416128"/>
+        <c:axId val="97794688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -41493,7 +43590,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98409856"/>
+        <c:crossAx val="97792768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -41626,15 +43723,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1504950</xdr:colOff>
+      <xdr:colOff>1571625</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:rowOff>85726</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -42293,29 +44390,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M378"/>
+  <dimension ref="A2:M378"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -42335,25 +44436,28 @@
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>95907961</v>
+      </c>
       <c r="B3">
         <v>0</v>
       </c>
@@ -42391,7 +44495,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>95907961</v>
+      </c>
       <c r="B4">
         <v>1</v>
       </c>
@@ -42429,7 +44536,10 @@
         <v>61540000</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>95907961</v>
+      </c>
       <c r="B5">
         <v>2</v>
       </c>
@@ -42457,8 +44567,20 @@
       <c r="J5">
         <v>32946000</v>
       </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <v>0.22071979999999999</v>
+      </c>
+      <c r="L5">
+        <v>0.2124559</v>
+      </c>
+      <c r="M5">
+        <v>61677000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>95907961</v>
+      </c>
       <c r="B6">
         <v>3</v>
       </c>
@@ -42486,8 +44608,20 @@
       <c r="J6">
         <v>32946000</v>
       </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <v>0.22228249999999999</v>
+      </c>
+      <c r="L6">
+        <v>0.21138199999999999</v>
+      </c>
+      <c r="M6">
+        <v>62114000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>95907961</v>
+      </c>
       <c r="B7">
         <v>4</v>
       </c>
@@ -42515,8 +44649,20 @@
       <c r="J7">
         <v>32946000</v>
       </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <v>0.22252449999999999</v>
+      </c>
+      <c r="L7">
+        <v>0.2127618</v>
+      </c>
+      <c r="M7">
+        <v>62182000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>95907961</v>
+      </c>
       <c r="B8">
         <v>5</v>
       </c>
@@ -42544,8 +44690,20 @@
       <c r="J8">
         <v>32946000</v>
       </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <v>0.2229429</v>
+      </c>
+      <c r="L8">
+        <v>0.21190490000000001</v>
+      </c>
+      <c r="M8">
+        <v>62298000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>95907961</v>
+      </c>
       <c r="B9">
         <v>6</v>
       </c>
@@ -42573,8 +44731,20 @@
       <c r="J9">
         <v>32971000</v>
       </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <v>0.22338079999999999</v>
+      </c>
+      <c r="L9">
+        <v>0.21525569999999999</v>
+      </c>
+      <c r="M9">
+        <v>62421000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>95907961</v>
+      </c>
       <c r="B10">
         <v>7</v>
       </c>
@@ -42602,8 +44772,20 @@
       <c r="J10">
         <v>32971000</v>
       </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <v>0.2253233</v>
+      </c>
+      <c r="L10">
+        <v>0.21352779999999999</v>
+      </c>
+      <c r="M10">
+        <v>62964000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>95907961</v>
+      </c>
       <c r="B11">
         <v>8</v>
       </c>
@@ -42631,8 +44813,20 @@
       <c r="J11">
         <v>32971000</v>
       </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <v>0.2256068</v>
+      </c>
+      <c r="L11">
+        <v>0.21631439999999999</v>
+      </c>
+      <c r="M11">
+        <v>63043000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>95907961</v>
+      </c>
       <c r="B12">
         <v>9</v>
       </c>
@@ -42660,8 +44854,20 @@
       <c r="J12">
         <v>32971000</v>
       </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K12">
+        <v>0.22594259999999999</v>
+      </c>
+      <c r="L12">
+        <v>0.21356820000000001</v>
+      </c>
+      <c r="M12">
+        <v>63137000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>95907961</v>
+      </c>
       <c r="B13">
         <v>10</v>
       </c>
@@ -42689,8 +44895,20 @@
       <c r="J13">
         <v>32971000</v>
       </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K13">
+        <v>0.22594259999999999</v>
+      </c>
+      <c r="L13">
+        <v>0.21646090000000001</v>
+      </c>
+      <c r="M13">
+        <v>63137000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>95907961</v>
+      </c>
       <c r="B14">
         <v>11</v>
       </c>
@@ -42718,8 +44936,20 @@
       <c r="J14">
         <v>33180000</v>
       </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K14">
+        <v>0.2261676</v>
+      </c>
+      <c r="L14">
+        <v>0.22100819999999999</v>
+      </c>
+      <c r="M14">
+        <v>63199000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>95907961</v>
+      </c>
       <c r="B15">
         <v>12</v>
       </c>
@@ -42747,8 +44977,20 @@
       <c r="J15">
         <v>33180000</v>
       </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K15">
+        <v>0.22723889999999999</v>
+      </c>
+      <c r="L15">
+        <v>0.2191775</v>
+      </c>
+      <c r="M15">
+        <v>63498000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>95907961</v>
+      </c>
       <c r="B16">
         <v>13</v>
       </c>
@@ -42776,8 +45018,20 @@
       <c r="J16">
         <v>33619000</v>
       </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K16">
+        <v>0.22800770000000001</v>
+      </c>
+      <c r="L16">
+        <v>0.2221292</v>
+      </c>
+      <c r="M16">
+        <v>63713000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>95907961</v>
+      </c>
       <c r="B17">
         <v>14</v>
       </c>
@@ -42805,8 +45059,20 @@
       <c r="J17">
         <v>33751000</v>
       </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <v>0.22841059999999999</v>
+      </c>
+      <c r="L17">
+        <v>0.2197924</v>
+      </c>
+      <c r="M17">
+        <v>63826000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>95907961</v>
+      </c>
       <c r="B18">
         <v>15</v>
       </c>
@@ -42834,8 +45100,20 @@
       <c r="J18">
         <v>33751000</v>
       </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <v>0.22841059999999999</v>
+      </c>
+      <c r="L18">
+        <v>0.22390689999999999</v>
+      </c>
+      <c r="M18">
+        <v>63826000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>95907961</v>
+      </c>
       <c r="B19">
         <v>16</v>
       </c>
@@ -42863,8 +45141,20 @@
       <c r="J19">
         <v>33958000</v>
       </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <v>0.22937869999999999</v>
+      </c>
+      <c r="L19">
+        <v>0.22300790000000001</v>
+      </c>
+      <c r="M19">
+        <v>64096000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>95907961</v>
+      </c>
       <c r="B20">
         <v>17</v>
       </c>
@@ -42892,8 +45182,20 @@
       <c r="J20">
         <v>35773000</v>
       </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <v>0.22937869999999999</v>
+      </c>
+      <c r="L20">
+        <v>0.2237566</v>
+      </c>
+      <c r="M20">
+        <v>64096000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>95907961</v>
+      </c>
       <c r="B21">
         <v>18</v>
       </c>
@@ -42921,8 +45223,20 @@
       <c r="J21">
         <v>36407000</v>
       </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <v>0.22978580000000001</v>
+      </c>
+      <c r="L21">
+        <v>0.22455030000000001</v>
+      </c>
+      <c r="M21">
+        <v>64210000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>95907961</v>
+      </c>
       <c r="B22">
         <v>19</v>
       </c>
@@ -42950,8 +45264,20 @@
       <c r="J22">
         <v>36424000</v>
       </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K22">
+        <v>0.23006109999999999</v>
+      </c>
+      <c r="L22">
+        <v>0.22093160000000001</v>
+      </c>
+      <c r="M22">
+        <v>64287000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>95907961</v>
+      </c>
       <c r="B23">
         <v>20</v>
       </c>
@@ -42979,8 +45305,20 @@
       <c r="J23">
         <v>36424000</v>
       </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K23">
+        <v>0.23014709999999999</v>
+      </c>
+      <c r="L23">
+        <v>0.22451299999999999</v>
+      </c>
+      <c r="M23">
+        <v>64312000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>95907961</v>
+      </c>
       <c r="B24">
         <v>21</v>
       </c>
@@ -43008,8 +45346,20 @@
       <c r="J24">
         <v>36424000</v>
       </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K24">
+        <v>0.2303772</v>
+      </c>
+      <c r="L24">
+        <v>0.2230463</v>
+      </c>
+      <c r="M24">
+        <v>64375000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>95907961</v>
+      </c>
       <c r="B25">
         <v>22</v>
       </c>
@@ -43037,8 +45387,20 @@
       <c r="J25">
         <v>36424000</v>
       </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K25">
+        <v>0.23065949999999999</v>
+      </c>
+      <c r="L25">
+        <v>0.22434680000000001</v>
+      </c>
+      <c r="M25">
+        <v>64455000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>95907961</v>
+      </c>
       <c r="B26">
         <v>23</v>
       </c>
@@ -43066,8 +45428,20 @@
       <c r="J26">
         <v>36424000</v>
       </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K26">
+        <v>0.23065949999999999</v>
+      </c>
+      <c r="L26">
+        <v>0.22518089999999999</v>
+      </c>
+      <c r="M26">
+        <v>64455000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>95907961</v>
+      </c>
       <c r="B27">
         <v>24</v>
       </c>
@@ -43096,7 +45470,10 @@
         <v>36424000</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>95907961</v>
+      </c>
       <c r="B28">
         <v>25</v>
       </c>
@@ -43125,7 +45502,10 @@
         <v>48103000</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>95907961</v>
+      </c>
       <c r="B29">
         <v>26</v>
       </c>
@@ -43154,7 +45534,10 @@
         <v>48587000</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>95907961</v>
+      </c>
       <c r="B30">
         <v>27</v>
       </c>
@@ -43183,7 +45566,10 @@
         <v>48587000</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>95907961</v>
+      </c>
       <c r="B31">
         <v>28</v>
       </c>
@@ -43212,7 +45598,10 @@
         <v>48609000</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>95907961</v>
+      </c>
       <c r="B32">
         <v>29</v>
       </c>
@@ -43241,7 +45630,10 @@
         <v>48609000</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>95907961</v>
+      </c>
       <c r="B33">
         <v>30</v>
       </c>
@@ -43270,7 +45662,10 @@
         <v>48609000</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>95907961</v>
+      </c>
       <c r="B34">
         <v>31</v>
       </c>
@@ -43299,7 +45694,10 @@
         <v>48609000</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>95907961</v>
+      </c>
       <c r="B35">
         <v>32</v>
       </c>
@@ -43328,7 +45726,10 @@
         <v>48609000</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>95907961</v>
+      </c>
       <c r="B36">
         <v>33</v>
       </c>
@@ -43357,7 +45758,10 @@
         <v>48609000</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>95907961</v>
+      </c>
       <c r="B37">
         <v>34</v>
       </c>
@@ -43386,7 +45790,10 @@
         <v>48609000</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>95907961</v>
+      </c>
       <c r="B38">
         <v>35</v>
       </c>
@@ -43415,7 +45822,10 @@
         <v>48609000</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>95907961</v>
+      </c>
       <c r="B39">
         <v>36</v>
       </c>
@@ -43444,7 +45854,10 @@
         <v>48609000</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>95907961</v>
+      </c>
       <c r="B40">
         <v>37</v>
       </c>
@@ -43473,7 +45886,10 @@
         <v>48701000</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>95907961</v>
+      </c>
       <c r="B41">
         <v>38</v>
       </c>
@@ -43502,7 +45918,10 @@
         <v>48905000</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>95907961</v>
+      </c>
       <c r="B42">
         <v>39</v>
       </c>
@@ -43531,7 +45950,10 @@
         <v>49141000</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>95907961</v>
+      </c>
       <c r="B43">
         <v>40</v>
       </c>
@@ -43560,7 +45982,10 @@
         <v>50437000</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>95907961</v>
+      </c>
       <c r="B44">
         <v>41</v>
       </c>
@@ -43589,7 +46014,10 @@
         <v>50437000</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>95907961</v>
+      </c>
       <c r="B45">
         <v>42</v>
       </c>
@@ -43618,7 +46046,10 @@
         <v>53443000</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>95907961</v>
+      </c>
       <c r="B46">
         <v>43</v>
       </c>
@@ -43647,7 +46078,10 @@
         <v>53629000</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>95907961</v>
+      </c>
       <c r="B47">
         <v>44</v>
       </c>
@@ -43676,7 +46110,10 @@
         <v>53629000</v>
       </c>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>95907961</v>
+      </c>
       <c r="B48">
         <v>45</v>
       </c>
@@ -43705,7 +46142,10 @@
         <v>54596000</v>
       </c>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>95907961</v>
+      </c>
       <c r="B49">
         <v>46</v>
       </c>
@@ -43734,7 +46174,10 @@
         <v>54756000</v>
       </c>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>95907961</v>
+      </c>
       <c r="B50">
         <v>47</v>
       </c>
@@ -43763,7 +46206,10 @@
         <v>54756000</v>
       </c>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>95907961</v>
+      </c>
       <c r="B51">
         <v>48</v>
       </c>
@@ -43792,7 +46238,10 @@
         <v>54756000</v>
       </c>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>95907961</v>
+      </c>
       <c r="B52">
         <v>49</v>
       </c>
@@ -43821,7 +46270,10 @@
         <v>55572000</v>
       </c>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>95907961</v>
+      </c>
       <c r="B53">
         <v>50</v>
       </c>
@@ -43850,7 +46302,10 @@
         <v>55572000</v>
       </c>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>95907961</v>
+      </c>
       <c r="B54">
         <v>51</v>
       </c>
@@ -43879,7 +46334,10 @@
         <v>55572000</v>
       </c>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>95907961</v>
+      </c>
       <c r="B55">
         <v>52</v>
       </c>
@@ -43908,7 +46366,10 @@
         <v>55590000</v>
       </c>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>95907961</v>
+      </c>
       <c r="B56">
         <v>53</v>
       </c>
@@ -43937,7 +46398,10 @@
         <v>55590000</v>
       </c>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>95907961</v>
+      </c>
       <c r="B57">
         <v>54</v>
       </c>
@@ -43966,7 +46430,10 @@
         <v>55625000</v>
       </c>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>95907961</v>
+      </c>
       <c r="B58">
         <v>55</v>
       </c>
@@ -43995,7 +46462,10 @@
         <v>55625000</v>
       </c>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>95907961</v>
+      </c>
       <c r="B59">
         <v>56</v>
       </c>
@@ -44024,7 +46494,10 @@
         <v>55686000</v>
       </c>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>95907961</v>
+      </c>
       <c r="B60">
         <v>57</v>
       </c>
@@ -44053,7 +46526,10 @@
         <v>55686000</v>
       </c>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>95907961</v>
+      </c>
       <c r="B61">
         <v>58</v>
       </c>
@@ -44082,7 +46558,10 @@
         <v>55957000</v>
       </c>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>95907961</v>
+      </c>
       <c r="B62">
         <v>59</v>
       </c>
@@ -44111,7 +46590,10 @@
         <v>55957000</v>
       </c>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>95907961</v>
+      </c>
       <c r="B63">
         <v>60</v>
       </c>
@@ -44140,7 +46622,10 @@
         <v>60637000</v>
       </c>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>95907961</v>
+      </c>
       <c r="B64">
         <v>61</v>
       </c>
@@ -44169,7 +46654,10 @@
         <v>60637000</v>
       </c>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>95907961</v>
+      </c>
       <c r="B65">
         <v>62</v>
       </c>
@@ -44198,7 +46686,10 @@
         <v>62846000</v>
       </c>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>95907961</v>
+      </c>
       <c r="B66">
         <v>63</v>
       </c>
@@ -44227,7 +46718,10 @@
         <v>62846000</v>
       </c>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>95907961</v>
+      </c>
       <c r="B67">
         <v>64</v>
       </c>
@@ -44256,7 +46750,10 @@
         <v>62846000</v>
       </c>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>95907961</v>
+      </c>
       <c r="B68">
         <v>65</v>
       </c>
@@ -44285,7 +46782,10 @@
         <v>62978000</v>
       </c>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>95907961</v>
+      </c>
       <c r="B69">
         <v>66</v>
       </c>
@@ -44314,7 +46814,10 @@
         <v>63091000</v>
       </c>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>95907961</v>
+      </c>
       <c r="B70">
         <v>67</v>
       </c>
@@ -44343,7 +46846,10 @@
         <v>63091000</v>
       </c>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>95907961</v>
+      </c>
       <c r="B71">
         <v>68</v>
       </c>
@@ -44372,7 +46878,10 @@
         <v>63097000</v>
       </c>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>95907961</v>
+      </c>
       <c r="B72">
         <v>69</v>
       </c>
@@ -44401,7 +46910,10 @@
         <v>63194000</v>
       </c>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>95907961</v>
+      </c>
       <c r="B73">
         <v>70</v>
       </c>
@@ -44430,7 +46942,10 @@
         <v>63194000</v>
       </c>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>95907961</v>
+      </c>
       <c r="B74">
         <v>71</v>
       </c>
@@ -44459,7 +46974,10 @@
         <v>63194000</v>
       </c>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>95907961</v>
+      </c>
       <c r="B75">
         <v>72</v>
       </c>
@@ -44488,7 +47006,10 @@
         <v>63194000</v>
       </c>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>95907961</v>
+      </c>
       <c r="B76">
         <v>73</v>
       </c>
@@ -44517,7 +47038,10 @@
         <v>63194000</v>
       </c>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>95907961</v>
+      </c>
       <c r="B77">
         <v>74</v>
       </c>
@@ -44546,7 +47070,10 @@
         <v>63194000</v>
       </c>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>95907961</v>
+      </c>
       <c r="B78">
         <v>75</v>
       </c>
@@ -44575,7 +47102,10 @@
         <v>63200000</v>
       </c>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>95907961</v>
+      </c>
       <c r="B79">
         <v>76</v>
       </c>
@@ -44604,7 +47134,10 @@
         <v>63200000</v>
       </c>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>95907961</v>
+      </c>
       <c r="B80">
         <v>77</v>
       </c>
@@ -44633,7 +47166,10 @@
         <v>63200000</v>
       </c>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>95907961</v>
+      </c>
       <c r="B81">
         <v>78</v>
       </c>
@@ -44662,7 +47198,10 @@
         <v>63222000</v>
       </c>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>95907961</v>
+      </c>
       <c r="B82">
         <v>79</v>
       </c>
@@ -44691,7 +47230,10 @@
         <v>63247000</v>
       </c>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>95907961</v>
+      </c>
       <c r="B83">
         <v>80</v>
       </c>
@@ -44720,7 +47262,10 @@
         <v>63321000</v>
       </c>
     </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>95907961</v>
+      </c>
       <c r="B84">
         <v>81</v>
       </c>
@@ -44749,7 +47294,10 @@
         <v>63375000</v>
       </c>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>95907961</v>
+      </c>
       <c r="B85">
         <v>82</v>
       </c>
@@ -44778,7 +47326,10 @@
         <v>63375000</v>
       </c>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>95907961</v>
+      </c>
       <c r="B86">
         <v>83</v>
       </c>
@@ -44807,7 +47358,10 @@
         <v>63375000</v>
       </c>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>95907961</v>
+      </c>
       <c r="B87">
         <v>84</v>
       </c>
@@ -44836,7 +47390,10 @@
         <v>63375000</v>
       </c>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>95907961</v>
+      </c>
       <c r="B88">
         <v>85</v>
       </c>
@@ -44865,7 +47422,10 @@
         <v>63376000</v>
       </c>
     </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>95907961</v>
+      </c>
       <c r="B89">
         <v>86</v>
       </c>
@@ -44894,7 +47454,10 @@
         <v>63376000</v>
       </c>
     </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>95907961</v>
+      </c>
       <c r="B90">
         <v>87</v>
       </c>
@@ -44923,7 +47486,10 @@
         <v>63376000</v>
       </c>
     </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>95907961</v>
+      </c>
       <c r="B91">
         <v>88</v>
       </c>
@@ -44952,7 +47518,10 @@
         <v>63376000</v>
       </c>
     </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>95907961</v>
+      </c>
       <c r="B92">
         <v>89</v>
       </c>
@@ -44981,7 +47550,10 @@
         <v>63376000</v>
       </c>
     </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>95907961</v>
+      </c>
       <c r="B93">
         <v>90</v>
       </c>
@@ -45010,7 +47582,10 @@
         <v>63376000</v>
       </c>
     </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>95907961</v>
+      </c>
       <c r="B94">
         <v>91</v>
       </c>
@@ -45039,7 +47614,10 @@
         <v>63376000</v>
       </c>
     </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>95907961</v>
+      </c>
       <c r="B95">
         <v>92</v>
       </c>
@@ -45068,7 +47646,10 @@
         <v>63376000</v>
       </c>
     </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95907961</v>
+      </c>
       <c r="B96">
         <v>93</v>
       </c>
@@ -45097,7 +47678,10 @@
         <v>63376000</v>
       </c>
     </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>95907961</v>
+      </c>
       <c r="B97">
         <v>94</v>
       </c>
@@ -45126,7 +47710,10 @@
         <v>63376000</v>
       </c>
     </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>95907961</v>
+      </c>
       <c r="B98">
         <v>95</v>
       </c>
@@ -45155,7 +47742,10 @@
         <v>63376000</v>
       </c>
     </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>95907961</v>
+      </c>
       <c r="B99">
         <v>96</v>
       </c>
@@ -45184,7 +47774,10 @@
         <v>63376000</v>
       </c>
     </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>95907961</v>
+      </c>
       <c r="B100">
         <v>97</v>
       </c>
@@ -45213,7 +47806,10 @@
         <v>63376000</v>
       </c>
     </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>95907961</v>
+      </c>
       <c r="B101">
         <v>98</v>
       </c>
@@ -45242,7 +47838,10 @@
         <v>63376000</v>
       </c>
     </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>95907961</v>
+      </c>
       <c r="B102">
         <v>99</v>
       </c>
@@ -45271,7 +47870,10 @@
         <v>63376000</v>
       </c>
     </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>95907961</v>
+      </c>
       <c r="B103">
         <v>100</v>
       </c>
@@ -45300,7 +47902,10 @@
         <v>63376000</v>
       </c>
     </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>95907961</v>
+      </c>
       <c r="B104">
         <v>101</v>
       </c>
@@ -45329,7 +47934,10 @@
         <v>63376000</v>
       </c>
     </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>95907961</v>
+      </c>
       <c r="B105">
         <v>102</v>
       </c>
@@ -45358,7 +47966,10 @@
         <v>63958000</v>
       </c>
     </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>95907961</v>
+      </c>
       <c r="B106">
         <v>103</v>
       </c>
@@ -45387,7 +47998,10 @@
         <v>63958000</v>
       </c>
     </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>95907961</v>
+      </c>
       <c r="B107">
         <v>104</v>
       </c>
@@ -45416,7 +48030,10 @@
         <v>64008000</v>
       </c>
     </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>95907961</v>
+      </c>
       <c r="B108">
         <v>105</v>
       </c>
@@ -45445,7 +48062,10 @@
         <v>64066000</v>
       </c>
     </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>95907961</v>
+      </c>
       <c r="B109">
         <v>106</v>
       </c>
@@ -45474,7 +48094,10 @@
         <v>64238000</v>
       </c>
     </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>95907961</v>
+      </c>
       <c r="B110">
         <v>107</v>
       </c>
@@ -45503,7 +48126,10 @@
         <v>64238000</v>
       </c>
     </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>95907961</v>
+      </c>
       <c r="B111">
         <v>108</v>
       </c>
@@ -45532,7 +48158,10 @@
         <v>64238000</v>
       </c>
     </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>95907961</v>
+      </c>
       <c r="B112">
         <v>109</v>
       </c>
@@ -45561,7 +48190,10 @@
         <v>64421000</v>
       </c>
     </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>95907961</v>
+      </c>
       <c r="B113">
         <v>110</v>
       </c>
@@ -45590,7 +48222,10 @@
         <v>64421000</v>
       </c>
     </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>95907961</v>
+      </c>
       <c r="B114">
         <v>111</v>
       </c>
@@ -45619,7 +48254,10 @@
         <v>64421000</v>
       </c>
     </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>95907961</v>
+      </c>
       <c r="B115">
         <v>112</v>
       </c>
@@ -45648,7 +48286,10 @@
         <v>64421000</v>
       </c>
     </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>95907961</v>
+      </c>
       <c r="B116">
         <v>113</v>
       </c>
@@ -45677,7 +48318,10 @@
         <v>64421000</v>
       </c>
     </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>95907961</v>
+      </c>
       <c r="B117">
         <v>114</v>
       </c>
@@ -45706,7 +48350,10 @@
         <v>64421000</v>
       </c>
     </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>95907961</v>
+      </c>
       <c r="B118">
         <v>115</v>
       </c>
@@ -45726,7 +48373,10 @@
         <v>88176000</v>
       </c>
     </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>95907961</v>
+      </c>
       <c r="B119">
         <v>116</v>
       </c>
@@ -45746,7 +48396,10 @@
         <v>88176000</v>
       </c>
     </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>95907961</v>
+      </c>
       <c r="B120">
         <v>117</v>
       </c>
@@ -45766,7 +48419,10 @@
         <v>88176000</v>
       </c>
     </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>95907961</v>
+      </c>
       <c r="B121">
         <v>118</v>
       </c>
@@ -45786,7 +48442,10 @@
         <v>88176000</v>
       </c>
     </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>95907961</v>
+      </c>
       <c r="B122">
         <v>119</v>
       </c>
@@ -45806,7 +48465,10 @@
         <v>88176000</v>
       </c>
     </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>95907961</v>
+      </c>
       <c r="B123">
         <v>120</v>
       </c>
@@ -45826,7 +48488,10 @@
         <v>88176000</v>
       </c>
     </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>95907961</v>
+      </c>
       <c r="B124">
         <v>121</v>
       </c>
@@ -45846,7 +48511,10 @@
         <v>88176000</v>
       </c>
     </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>95907961</v>
+      </c>
       <c r="B125">
         <v>122</v>
       </c>
@@ -45866,7 +48534,10 @@
         <v>88176000</v>
       </c>
     </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>95907961</v>
+      </c>
       <c r="B126">
         <v>123</v>
       </c>
@@ -45886,7 +48557,10 @@
         <v>88176000</v>
       </c>
     </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>95907961</v>
+      </c>
       <c r="B127">
         <v>124</v>
       </c>
@@ -45906,7 +48580,10 @@
         <v>88176000</v>
       </c>
     </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>95907961</v>
+      </c>
       <c r="B128">
         <v>125</v>
       </c>
@@ -45926,7 +48603,10 @@
         <v>88176000</v>
       </c>
     </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>95907961</v>
+      </c>
       <c r="B129">
         <v>126</v>
       </c>
@@ -45946,7 +48626,10 @@
         <v>88176000</v>
       </c>
     </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>95907961</v>
+      </c>
       <c r="B130">
         <v>127</v>
       </c>
@@ -45966,7 +48649,10 @@
         <v>88176000</v>
       </c>
     </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>95907961</v>
+      </c>
       <c r="B131">
         <v>128</v>
       </c>
@@ -45986,7 +48672,10 @@
         <v>88176000</v>
       </c>
     </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>95907961</v>
+      </c>
       <c r="B132">
         <v>129</v>
       </c>
@@ -46006,7 +48695,10 @@
         <v>88181000</v>
       </c>
     </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>95907961</v>
+      </c>
       <c r="B133">
         <v>130</v>
       </c>
@@ -46026,7 +48718,10 @@
         <v>88181000</v>
       </c>
     </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>95907961</v>
+      </c>
       <c r="B134">
         <v>131</v>
       </c>
@@ -46046,7 +48741,10 @@
         <v>88181000</v>
       </c>
     </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>95907961</v>
+      </c>
       <c r="B135">
         <v>132</v>
       </c>
@@ -46066,7 +48764,10 @@
         <v>88181000</v>
       </c>
     </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>95907961</v>
+      </c>
       <c r="B136">
         <v>133</v>
       </c>
@@ -46086,7 +48787,10 @@
         <v>88181000</v>
       </c>
     </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>95907961</v>
+      </c>
       <c r="B137">
         <v>134</v>
       </c>
@@ -46106,7 +48810,10 @@
         <v>88181000</v>
       </c>
     </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>95907961</v>
+      </c>
       <c r="B138">
         <v>135</v>
       </c>
@@ -46126,7 +48833,10 @@
         <v>88181000</v>
       </c>
     </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>95907961</v>
+      </c>
       <c r="B139">
         <v>136</v>
       </c>
@@ -46146,7 +48856,10 @@
         <v>88181000</v>
       </c>
     </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>95907961</v>
+      </c>
       <c r="B140">
         <v>137</v>
       </c>
@@ -46166,7 +48879,10 @@
         <v>88181000</v>
       </c>
     </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>95907961</v>
+      </c>
       <c r="B141">
         <v>138</v>
       </c>
@@ -46186,7 +48902,10 @@
         <v>88181000</v>
       </c>
     </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>95907961</v>
+      </c>
       <c r="B142">
         <v>139</v>
       </c>
@@ -46206,7 +48925,10 @@
         <v>88181000</v>
       </c>
     </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>95907961</v>
+      </c>
       <c r="B143">
         <v>140</v>
       </c>
@@ -46226,7 +48948,10 @@
         <v>88181000</v>
       </c>
     </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>95907961</v>
+      </c>
       <c r="B144">
         <v>141</v>
       </c>
@@ -46246,7 +48971,10 @@
         <v>88181000</v>
       </c>
     </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>95907961</v>
+      </c>
       <c r="B145">
         <v>142</v>
       </c>
@@ -46266,7 +48994,10 @@
         <v>88181000</v>
       </c>
     </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>95907961</v>
+      </c>
       <c r="B146">
         <v>143</v>
       </c>
@@ -46286,7 +49017,10 @@
         <v>88181000</v>
       </c>
     </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>95907961</v>
+      </c>
       <c r="B147">
         <v>144</v>
       </c>
@@ -46306,7 +49040,10 @@
         <v>88181000</v>
       </c>
     </row>
-    <row r="148" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>95907961</v>
+      </c>
       <c r="B148">
         <v>145</v>
       </c>
@@ -46326,7 +49063,10 @@
         <v>88181000</v>
       </c>
     </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>95907961</v>
+      </c>
       <c r="B149">
         <v>146</v>
       </c>
@@ -46346,7 +49086,10 @@
         <v>88181000</v>
       </c>
     </row>
-    <row r="150" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>95907961</v>
+      </c>
       <c r="B150">
         <v>147</v>
       </c>
@@ -46366,7 +49109,10 @@
         <v>88181000</v>
       </c>
     </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>95907961</v>
+      </c>
       <c r="B151">
         <v>148</v>
       </c>
@@ -46386,7 +49132,10 @@
         <v>88181000</v>
       </c>
     </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>95907961</v>
+      </c>
       <c r="B152">
         <v>149</v>
       </c>
@@ -46406,7 +49155,10 @@
         <v>88181000</v>
       </c>
     </row>
-    <row r="153" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>95907961</v>
+      </c>
       <c r="B153">
         <v>150</v>
       </c>
@@ -46426,7 +49178,10 @@
         <v>88214000</v>
       </c>
     </row>
-    <row r="154" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>95907961</v>
+      </c>
       <c r="B154">
         <v>151</v>
       </c>
@@ -46446,7 +49201,10 @@
         <v>88214000</v>
       </c>
     </row>
-    <row r="155" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>95907961</v>
+      </c>
       <c r="B155">
         <v>152</v>
       </c>
@@ -46466,7 +49224,10 @@
         <v>88214000</v>
       </c>
     </row>
-    <row r="156" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>95907961</v>
+      </c>
       <c r="B156">
         <v>153</v>
       </c>
@@ -46486,7 +49247,10 @@
         <v>88214000</v>
       </c>
     </row>
-    <row r="157" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>95907961</v>
+      </c>
       <c r="B157">
         <v>154</v>
       </c>
@@ -46506,7 +49270,10 @@
         <v>88214000</v>
       </c>
     </row>
-    <row r="158" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>95907961</v>
+      </c>
       <c r="B158">
         <v>155</v>
       </c>
@@ -46526,7 +49293,10 @@
         <v>88214000</v>
       </c>
     </row>
-    <row r="159" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>95907961</v>
+      </c>
       <c r="B159">
         <v>156</v>
       </c>
@@ -46546,7 +49316,10 @@
         <v>88214000</v>
       </c>
     </row>
-    <row r="160" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>95907961</v>
+      </c>
       <c r="B160">
         <v>157</v>
       </c>
@@ -46566,7 +49339,10 @@
         <v>88214000</v>
       </c>
     </row>
-    <row r="161" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>95907961</v>
+      </c>
       <c r="B161">
         <v>158</v>
       </c>
@@ -46586,7 +49362,10 @@
         <v>88214000</v>
       </c>
     </row>
-    <row r="162" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>95907961</v>
+      </c>
       <c r="B162">
         <v>159</v>
       </c>
@@ -46606,7 +49385,10 @@
         <v>88214000</v>
       </c>
     </row>
-    <row r="163" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>95907961</v>
+      </c>
       <c r="B163">
         <v>160</v>
       </c>
@@ -46626,7 +49408,10 @@
         <v>88214000</v>
       </c>
     </row>
-    <row r="164" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>95907961</v>
+      </c>
       <c r="B164">
         <v>161</v>
       </c>
@@ -46646,7 +49431,10 @@
         <v>88214000</v>
       </c>
     </row>
-    <row r="165" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>95907961</v>
+      </c>
       <c r="B165">
         <v>162</v>
       </c>
@@ -46666,7 +49454,10 @@
         <v>88214000</v>
       </c>
     </row>
-    <row r="166" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>95907961</v>
+      </c>
       <c r="B166">
         <v>163</v>
       </c>
@@ -46686,7 +49477,10 @@
         <v>88214000</v>
       </c>
     </row>
-    <row r="167" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>95907961</v>
+      </c>
       <c r="B167">
         <v>164</v>
       </c>
@@ -46697,7 +49491,10 @@
         <v>0.12023349999999999</v>
       </c>
     </row>
-    <row r="168" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>95907961</v>
+      </c>
       <c r="B168">
         <v>165</v>
       </c>
@@ -46708,7 +49505,10 @@
         <v>0.1195799</v>
       </c>
     </row>
-    <row r="169" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>95907961</v>
+      </c>
       <c r="B169">
         <v>166</v>
       </c>
@@ -46719,7 +49519,10 @@
         <v>0.11881949999999999</v>
       </c>
     </row>
-    <row r="170" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>95907961</v>
+      </c>
       <c r="B170">
         <v>167</v>
       </c>
@@ -46730,7 +49533,10 @@
         <v>0.1144863</v>
       </c>
     </row>
-    <row r="171" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>95907961</v>
+      </c>
       <c r="B171">
         <v>168</v>
       </c>
@@ -46741,7 +49547,10 @@
         <v>0.11241230000000001</v>
       </c>
     </row>
-    <row r="172" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>95907961</v>
+      </c>
       <c r="B172">
         <v>169</v>
       </c>
@@ -46752,7 +49561,10 @@
         <v>0.1100463</v>
       </c>
     </row>
-    <row r="173" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>95907961</v>
+      </c>
       <c r="B173">
         <v>170</v>
       </c>
@@ -46763,7 +49575,10 @@
         <v>0.10971019999999999</v>
       </c>
     </row>
-    <row r="174" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>95907961</v>
+      </c>
       <c r="B174">
         <v>171</v>
       </c>
@@ -46774,7 +49589,10 @@
         <v>0.1097022</v>
       </c>
     </row>
-    <row r="175" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>95907961</v>
+      </c>
       <c r="B175">
         <v>172</v>
       </c>
@@ -46785,7 +49603,10 @@
         <v>0.1142039</v>
       </c>
     </row>
-    <row r="176" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>95907961</v>
+      </c>
       <c r="B176">
         <v>173</v>
       </c>
@@ -46796,7 +49617,10 @@
         <v>0.112221</v>
       </c>
     </row>
-    <row r="177" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>95907961</v>
+      </c>
       <c r="B177">
         <v>174</v>
       </c>
@@ -46807,7 +49631,10 @@
         <v>0.1189726</v>
       </c>
     </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>95907961</v>
+      </c>
       <c r="B178">
         <v>175</v>
       </c>
@@ -46818,7 +49645,10 @@
         <v>0.1153246</v>
       </c>
     </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>95907961</v>
+      </c>
       <c r="B179">
         <v>176</v>
       </c>
@@ -46829,7 +49659,10 @@
         <v>0.1123546</v>
       </c>
     </row>
-    <row r="180" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>95907961</v>
+      </c>
       <c r="B180">
         <v>177</v>
       </c>
@@ -46840,7 +49673,10 @@
         <v>0.118585</v>
       </c>
     </row>
-    <row r="181" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>95907961</v>
+      </c>
       <c r="B181">
         <v>178</v>
       </c>
@@ -46851,7 +49687,10 @@
         <v>0.1182774</v>
       </c>
     </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>95907961</v>
+      </c>
       <c r="B182">
         <v>179</v>
       </c>
@@ -46862,7 +49701,10 @@
         <v>0.11718140000000001</v>
       </c>
     </row>
-    <row r="183" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>95907961</v>
+      </c>
       <c r="B183">
         <v>180</v>
       </c>
@@ -46873,7 +49715,10 @@
         <v>0.1162305</v>
       </c>
     </row>
-    <row r="184" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>95907961</v>
+      </c>
       <c r="B184">
         <v>181</v>
       </c>
@@ -46884,7 +49729,10 @@
         <v>0.1168574</v>
       </c>
     </row>
-    <row r="185" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>95907961</v>
+      </c>
       <c r="B185">
         <v>182</v>
       </c>
@@ -46895,7 +49743,10 @@
         <v>0.1167011</v>
       </c>
     </row>
-    <row r="186" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>95907961</v>
+      </c>
       <c r="B186">
         <v>183</v>
       </c>
@@ -46906,7 +49757,10 @@
         <v>0.1155632</v>
       </c>
     </row>
-    <row r="187" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>95907961</v>
+      </c>
       <c r="B187">
         <v>184</v>
       </c>
@@ -46917,7 +49771,10 @@
         <v>0.11807189999999999</v>
       </c>
     </row>
-    <row r="188" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>95907961</v>
+      </c>
       <c r="B188">
         <v>185</v>
       </c>
@@ -46928,7 +49785,10 @@
         <v>0.1185968</v>
       </c>
     </row>
-    <row r="189" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>95907961</v>
+      </c>
       <c r="B189">
         <v>186</v>
       </c>
@@ -46939,7 +49799,10 @@
         <v>0.116587</v>
       </c>
     </row>
-    <row r="190" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>95907961</v>
+      </c>
       <c r="B190">
         <v>187</v>
       </c>
@@ -46950,7 +49813,10 @@
         <v>0.1148462</v>
       </c>
     </row>
-    <row r="191" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>95907961</v>
+      </c>
       <c r="B191">
         <v>188</v>
       </c>
@@ -46961,7 +49827,10 @@
         <v>0.11860420000000001</v>
       </c>
     </row>
-    <row r="192" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>95907961</v>
+      </c>
       <c r="B192">
         <v>189</v>
       </c>
@@ -46972,7 +49841,10 @@
         <v>0.1164791</v>
       </c>
     </row>
-    <row r="193" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>95907961</v>
+      </c>
       <c r="B193">
         <v>190</v>
       </c>
@@ -46983,7 +49855,10 @@
         <v>0.11574710000000001</v>
       </c>
     </row>
-    <row r="194" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>95907961</v>
+      </c>
       <c r="B194">
         <v>191</v>
       </c>
@@ -46994,7 +49869,10 @@
         <v>0.117134</v>
       </c>
     </row>
-    <row r="195" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>95907961</v>
+      </c>
       <c r="B195">
         <v>192</v>
       </c>
@@ -47005,7 +49883,10 @@
         <v>0.116565</v>
       </c>
     </row>
-    <row r="196" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>95907961</v>
+      </c>
       <c r="B196">
         <v>193</v>
       </c>
@@ -47016,7 +49897,10 @@
         <v>0.1152946</v>
       </c>
     </row>
-    <row r="197" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>95907961</v>
+      </c>
       <c r="B197">
         <v>194</v>
       </c>
@@ -47027,7 +49911,10 @@
         <v>0.1146683</v>
       </c>
     </row>
-    <row r="198" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>95907961</v>
+      </c>
       <c r="B198">
         <v>195</v>
       </c>
@@ -47038,7 +49925,10 @@
         <v>0.11627419999999999</v>
       </c>
     </row>
-    <row r="199" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>95907961</v>
+      </c>
       <c r="B199">
         <v>196</v>
       </c>
@@ -47049,7 +49939,10 @@
         <v>0.117186</v>
       </c>
     </row>
-    <row r="200" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>95907961</v>
+      </c>
       <c r="B200">
         <v>197</v>
       </c>
@@ -47060,7 +49953,10 @@
         <v>0.1184283</v>
       </c>
     </row>
-    <row r="201" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>95907961</v>
+      </c>
       <c r="B201">
         <v>198</v>
       </c>
@@ -47071,7 +49967,10 @@
         <v>0.1147302</v>
       </c>
     </row>
-    <row r="202" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>95907961</v>
+      </c>
       <c r="B202">
         <v>199</v>
       </c>
@@ -47082,7 +49981,10 @@
         <v>0.1149347</v>
       </c>
     </row>
-    <row r="203" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>95907961</v>
+      </c>
       <c r="B203">
         <v>200</v>
       </c>
@@ -47093,7 +49995,10 @@
         <v>0.1151722</v>
       </c>
     </row>
-    <row r="204" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>95907961</v>
+      </c>
       <c r="B204">
         <v>201</v>
       </c>
@@ -47104,7 +50009,10 @@
         <v>0.11282399999999999</v>
       </c>
     </row>
-    <row r="205" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>95907961</v>
+      </c>
       <c r="B205">
         <v>202</v>
       </c>
@@ -47115,7 +50023,10 @@
         <v>0.11207259999999999</v>
       </c>
     </row>
-    <row r="206" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>95907961</v>
+      </c>
       <c r="B206">
         <v>203</v>
       </c>
@@ -47126,7 +50037,10 @@
         <v>0.1067211</v>
       </c>
     </row>
-    <row r="207" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>95907961</v>
+      </c>
       <c r="B207">
         <v>204</v>
       </c>
@@ -47137,7 +50051,10 @@
         <v>0.1101158</v>
       </c>
     </row>
-    <row r="208" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>95907961</v>
+      </c>
       <c r="B208">
         <v>205</v>
       </c>
@@ -47148,7 +50065,10 @@
         <v>0.11209180000000001</v>
       </c>
     </row>
-    <row r="209" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>95907961</v>
+      </c>
       <c r="B209">
         <v>206</v>
       </c>
@@ -47159,7 +50079,10 @@
         <v>0.1111909</v>
       </c>
     </row>
-    <row r="210" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>95907961</v>
+      </c>
       <c r="B210">
         <v>207</v>
       </c>
@@ -47170,7 +50093,10 @@
         <v>0.1130811</v>
       </c>
     </row>
-    <row r="211" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>95907961</v>
+      </c>
       <c r="B211">
         <v>208</v>
       </c>
@@ -47181,7 +50107,10 @@
         <v>0.112012</v>
       </c>
     </row>
-    <row r="212" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>95907961</v>
+      </c>
       <c r="B212">
         <v>209</v>
       </c>
@@ -47192,7 +50121,10 @@
         <v>0.1125444</v>
       </c>
     </row>
-    <row r="213" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>95907961</v>
+      </c>
       <c r="B213">
         <v>210</v>
       </c>
@@ -47203,7 +50135,10 @@
         <v>0.1137368</v>
       </c>
     </row>
-    <row r="214" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>95907961</v>
+      </c>
       <c r="B214">
         <v>211</v>
       </c>
@@ -47214,7 +50149,10 @@
         <v>0.11595519999999999</v>
       </c>
     </row>
-    <row r="215" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>95907961</v>
+      </c>
       <c r="B215">
         <v>212</v>
       </c>
@@ -47225,7 +50163,10 @@
         <v>0.1127947</v>
       </c>
     </row>
-    <row r="216" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>95907961</v>
+      </c>
       <c r="B216">
         <v>213</v>
       </c>
@@ -47236,7 +50177,10 @@
         <v>0.110009</v>
       </c>
     </row>
-    <row r="217" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>95907961</v>
+      </c>
       <c r="B217">
         <v>214</v>
       </c>
@@ -47247,7 +50191,10 @@
         <v>0.10989790000000001</v>
       </c>
     </row>
-    <row r="218" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>95907961</v>
+      </c>
       <c r="B218">
         <v>215</v>
       </c>
@@ -47258,7 +50205,10 @@
         <v>0.1139915</v>
       </c>
     </row>
-    <row r="219" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>95907961</v>
+      </c>
       <c r="B219">
         <v>216</v>
       </c>
@@ -47269,7 +50219,10 @@
         <v>0.1095222</v>
       </c>
     </row>
-    <row r="220" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>95907961</v>
+      </c>
       <c r="B220">
         <v>217</v>
       </c>
@@ -47280,7 +50233,10 @@
         <v>0.10217660000000001</v>
       </c>
     </row>
-    <row r="221" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>95907961</v>
+      </c>
       <c r="B221">
         <v>218</v>
       </c>
@@ -47291,7 +50247,10 @@
         <v>0.10465530000000001</v>
       </c>
     </row>
-    <row r="222" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>95907961</v>
+      </c>
       <c r="B222">
         <v>219</v>
       </c>
@@ -47302,7 +50261,10 @@
         <v>0.10489569999999999</v>
       </c>
     </row>
-    <row r="223" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>95907961</v>
+      </c>
       <c r="B223">
         <v>220</v>
       </c>
@@ -47313,7 +50275,10 @@
         <v>0.1058032</v>
       </c>
     </row>
-    <row r="224" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>95907961</v>
+      </c>
       <c r="B224">
         <v>221</v>
       </c>
@@ -47324,7 +50289,10 @@
         <v>0.1061245</v>
       </c>
     </row>
-    <row r="225" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>95907961</v>
+      </c>
       <c r="B225">
         <v>222</v>
       </c>
@@ -47335,7 +50303,10 @@
         <v>0.1078852</v>
       </c>
     </row>
-    <row r="226" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>95907961</v>
+      </c>
       <c r="B226">
         <v>223</v>
       </c>
@@ -47346,7 +50317,10 @@
         <v>0.1056607</v>
       </c>
     </row>
-    <row r="227" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>95907961</v>
+      </c>
       <c r="B227">
         <v>224</v>
       </c>
@@ -47357,7 +50331,10 @@
         <v>0.10984579999999999</v>
       </c>
     </row>
-    <row r="228" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>95907961</v>
+      </c>
       <c r="B228">
         <v>225</v>
       </c>
@@ -47368,7 +50345,10 @@
         <v>0.10836320000000001</v>
       </c>
     </row>
-    <row r="229" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>95907961</v>
+      </c>
       <c r="B229">
         <v>226</v>
       </c>
@@ -47379,7 +50359,10 @@
         <v>0.1088575</v>
       </c>
     </row>
-    <row r="230" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>95907961</v>
+      </c>
       <c r="B230">
         <v>227</v>
       </c>
@@ -47390,7 +50373,10 @@
         <v>0.1057847</v>
       </c>
     </row>
-    <row r="231" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>95907961</v>
+      </c>
       <c r="B231">
         <v>228</v>
       </c>
@@ -47401,7 +50387,10 @@
         <v>0.1098393</v>
       </c>
     </row>
-    <row r="232" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>95907961</v>
+      </c>
       <c r="B232">
         <v>229</v>
       </c>
@@ -47412,7 +50401,10 @@
         <v>0.10733959999999999</v>
       </c>
     </row>
-    <row r="233" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>95907961</v>
+      </c>
       <c r="B233">
         <v>230</v>
       </c>
@@ -47423,7 +50415,10 @@
         <v>0.1083862</v>
       </c>
     </row>
-    <row r="234" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>95907961</v>
+      </c>
       <c r="B234">
         <v>231</v>
       </c>
@@ -47434,7 +50429,10 @@
         <v>0.10890759999999999</v>
       </c>
     </row>
-    <row r="235" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>95907961</v>
+      </c>
       <c r="B235">
         <v>232</v>
       </c>
@@ -47445,7 +50443,10 @@
         <v>0.1021268</v>
       </c>
     </row>
-    <row r="236" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>95907961</v>
+      </c>
       <c r="B236">
         <v>233</v>
       </c>
@@ -47456,7 +50457,10 @@
         <v>0.1006624</v>
       </c>
     </row>
-    <row r="237" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>95907961</v>
+      </c>
       <c r="B237">
         <v>234</v>
       </c>
@@ -47467,7 +50471,10 @@
         <v>0.10416930000000001</v>
       </c>
     </row>
-    <row r="238" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>95907961</v>
+      </c>
       <c r="B238">
         <v>235</v>
       </c>
@@ -47478,7 +50485,10 @@
         <v>0.103432</v>
       </c>
     </row>
-    <row r="239" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>95907961</v>
+      </c>
       <c r="B239">
         <v>236</v>
       </c>
@@ -47489,7 +50499,10 @@
         <v>0.1069659</v>
       </c>
     </row>
-    <row r="240" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>95907961</v>
+      </c>
       <c r="B240">
         <v>237</v>
       </c>
@@ -47500,7 +50513,10 @@
         <v>0.10431070000000001</v>
       </c>
     </row>
-    <row r="241" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>95907961</v>
+      </c>
       <c r="B241">
         <v>238</v>
       </c>
@@ -47511,7 +50527,10 @@
         <v>0.1056381</v>
       </c>
     </row>
-    <row r="242" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>95907961</v>
+      </c>
       <c r="B242">
         <v>239</v>
       </c>
@@ -47522,7 +50541,10 @@
         <v>0.10614319999999999</v>
       </c>
     </row>
-    <row r="243" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>95907961</v>
+      </c>
       <c r="B243">
         <v>240</v>
       </c>
@@ -47533,7 +50555,10 @@
         <v>0.103871</v>
       </c>
     </row>
-    <row r="244" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>95907961</v>
+      </c>
       <c r="B244">
         <v>241</v>
       </c>
@@ -47544,7 +50569,10 @@
         <v>0.1061653</v>
       </c>
     </row>
-    <row r="245" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>95907961</v>
+      </c>
       <c r="B245">
         <v>242</v>
       </c>
@@ -47555,7 +50583,10 @@
         <v>0.1065571</v>
       </c>
     </row>
-    <row r="246" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>95907961</v>
+      </c>
       <c r="B246">
         <v>243</v>
       </c>
@@ -47566,7 +50597,10 @@
         <v>0.1105025</v>
       </c>
     </row>
-    <row r="247" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>95907961</v>
+      </c>
       <c r="B247">
         <v>244</v>
       </c>
@@ -47577,7 +50611,10 @@
         <v>0.1060557</v>
       </c>
     </row>
-    <row r="248" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>95907961</v>
+      </c>
       <c r="B248">
         <v>245</v>
       </c>
@@ -47588,7 +50625,10 @@
         <v>0.1087273</v>
       </c>
     </row>
-    <row r="249" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>95907961</v>
+      </c>
       <c r="B249">
         <v>246</v>
       </c>
@@ -47599,7 +50639,10 @@
         <v>0.1076211</v>
       </c>
     </row>
-    <row r="250" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>95907961</v>
+      </c>
       <c r="B250">
         <v>247</v>
       </c>
@@ -47610,7 +50653,10 @@
         <v>0.1044225</v>
       </c>
     </row>
-    <row r="251" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>95907961</v>
+      </c>
       <c r="B251">
         <v>248</v>
       </c>
@@ -47621,7 +50667,10 @@
         <v>0.1013796</v>
       </c>
     </row>
-    <row r="252" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>95907961</v>
+      </c>
       <c r="B252">
         <v>249</v>
       </c>
@@ -47632,7 +50681,10 @@
         <v>0.1013027</v>
       </c>
     </row>
-    <row r="253" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>95907961</v>
+      </c>
       <c r="B253">
         <v>250</v>
       </c>
@@ -47643,7 +50695,10 @@
         <v>0.1050209</v>
       </c>
     </row>
-    <row r="254" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>95907961</v>
+      </c>
       <c r="B254">
         <v>251</v>
       </c>
@@ -47654,7 +50709,10 @@
         <v>0.1016809</v>
       </c>
     </row>
-    <row r="255" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>95907961</v>
+      </c>
       <c r="B255">
         <v>252</v>
       </c>
@@ -47665,7 +50723,10 @@
         <v>0.1050307</v>
       </c>
     </row>
-    <row r="256" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>95907961</v>
+      </c>
       <c r="B256">
         <v>253</v>
       </c>
@@ -47676,7 +50737,10 @@
         <v>0.1032912</v>
       </c>
     </row>
-    <row r="257" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>95907961</v>
+      </c>
       <c r="B257">
         <v>254</v>
       </c>
@@ -47687,7 +50751,10 @@
         <v>0.1018691</v>
       </c>
     </row>
-    <row r="258" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>95907961</v>
+      </c>
       <c r="B258">
         <v>255</v>
       </c>
@@ -47698,7 +50765,10 @@
         <v>0.1038676</v>
       </c>
     </row>
-    <row r="259" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>95907961</v>
+      </c>
       <c r="B259">
         <v>256</v>
       </c>
@@ -47709,7 +50779,10 @@
         <v>0.10082289999999999</v>
       </c>
     </row>
-    <row r="260" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>95907961</v>
+      </c>
       <c r="B260">
         <v>257</v>
       </c>
@@ -47720,7 +50793,10 @@
         <v>9.7588419999999995E-2</v>
       </c>
     </row>
-    <row r="261" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>95907961</v>
+      </c>
       <c r="B261">
         <v>258</v>
       </c>
@@ -47731,7 +50807,10 @@
         <v>9.4779139999999998E-2</v>
       </c>
     </row>
-    <row r="262" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>95907961</v>
+      </c>
       <c r="B262">
         <v>259</v>
       </c>
@@ -47742,7 +50821,10 @@
         <v>0.1017858</v>
       </c>
     </row>
-    <row r="263" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>95907961</v>
+      </c>
       <c r="B263">
         <v>260</v>
       </c>
@@ -47753,7 +50835,10 @@
         <v>9.9289870000000002E-2</v>
       </c>
     </row>
-    <row r="264" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>95907961</v>
+      </c>
       <c r="B264">
         <v>261</v>
       </c>
@@ -47764,7 +50849,10 @@
         <v>9.6837019999999996E-2</v>
       </c>
     </row>
-    <row r="265" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>95907961</v>
+      </c>
       <c r="B265">
         <v>262</v>
       </c>
@@ -47775,7 +50863,10 @@
         <v>0.1020297</v>
       </c>
     </row>
-    <row r="266" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>95907961</v>
+      </c>
       <c r="B266">
         <v>263</v>
       </c>
@@ -47786,7 +50877,10 @@
         <v>0.1016809</v>
       </c>
     </row>
-    <row r="267" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>95907961</v>
+      </c>
       <c r="B267">
         <v>264</v>
       </c>
@@ -47797,7 +50891,10 @@
         <v>0.1053911</v>
       </c>
     </row>
-    <row r="268" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>95907961</v>
+      </c>
       <c r="B268">
         <v>265</v>
       </c>
@@ -47808,7 +50905,10 @@
         <v>0.1072139</v>
       </c>
     </row>
-    <row r="269" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>95907961</v>
+      </c>
       <c r="B269">
         <v>266</v>
       </c>
@@ -47819,7 +50919,10 @@
         <v>0.10772950000000001</v>
       </c>
     </row>
-    <row r="270" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>95907961</v>
+      </c>
       <c r="B270">
         <v>267</v>
       </c>
@@ -47830,7 +50933,10 @@
         <v>0.10455299999999999</v>
       </c>
     </row>
-    <row r="271" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>95907961</v>
+      </c>
       <c r="B271">
         <v>268</v>
       </c>
@@ -47841,7 +50947,10 @@
         <v>0.1071242</v>
       </c>
     </row>
-    <row r="272" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>95907961</v>
+      </c>
       <c r="B272">
         <v>269</v>
       </c>
@@ -47852,7 +50961,10 @@
         <v>0.10815379999999999</v>
       </c>
     </row>
-    <row r="273" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>95907961</v>
+      </c>
       <c r="B273">
         <v>270</v>
       </c>
@@ -47863,7 +50975,10 @@
         <v>0.1039904</v>
       </c>
     </row>
-    <row r="274" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>95907961</v>
+      </c>
       <c r="B274">
         <v>271</v>
       </c>
@@ -47874,7 +50989,10 @@
         <v>0.1097727</v>
       </c>
     </row>
-    <row r="275" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>95907961</v>
+      </c>
       <c r="B275">
         <v>272</v>
       </c>
@@ -47885,7 +51003,10 @@
         <v>0.10936510000000001</v>
       </c>
     </row>
-    <row r="276" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>95907961</v>
+      </c>
       <c r="B276">
         <v>273</v>
       </c>
@@ -47896,7 +51017,10 @@
         <v>0.1115625</v>
       </c>
     </row>
-    <row r="277" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>95907961</v>
+      </c>
       <c r="B277">
         <v>274</v>
       </c>
@@ -47907,7 +51031,10 @@
         <v>0.10921839999999999</v>
       </c>
     </row>
-    <row r="278" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>95907961</v>
+      </c>
       <c r="B278">
         <v>275</v>
       </c>
@@ -47918,7 +51045,10 @@
         <v>0.11084090000000001</v>
       </c>
     </row>
-    <row r="279" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>95907961</v>
+      </c>
       <c r="B279">
         <v>276</v>
       </c>
@@ -47929,7 +51059,10 @@
         <v>0.110564</v>
       </c>
     </row>
-    <row r="280" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>95907961</v>
+      </c>
       <c r="B280">
         <v>277</v>
       </c>
@@ -47940,7 +51073,10 @@
         <v>0.1095887</v>
       </c>
     </row>
-    <row r="281" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>95907961</v>
+      </c>
       <c r="B281">
         <v>278</v>
       </c>
@@ -47951,7 +51087,10 @@
         <v>0.1030544</v>
       </c>
     </row>
-    <row r="282" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>95907961</v>
+      </c>
       <c r="B282">
         <v>279</v>
       </c>
@@ -47962,7 +51101,10 @@
         <v>9.9688860000000004E-2</v>
       </c>
     </row>
-    <row r="283" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>95907961</v>
+      </c>
       <c r="B283">
         <v>280</v>
       </c>
@@ -47973,7 +51115,10 @@
         <v>0.10346669999999999</v>
       </c>
     </row>
-    <row r="284" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>95907961</v>
+      </c>
       <c r="B284">
         <v>281</v>
       </c>
@@ -47984,7 +51129,10 @@
         <v>0.10121579999999999</v>
       </c>
     </row>
-    <row r="285" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>95907961</v>
+      </c>
       <c r="B285">
         <v>282</v>
       </c>
@@ -47995,7 +51143,10 @@
         <v>9.7261150000000005E-2</v>
       </c>
     </row>
-    <row r="286" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>95907961</v>
+      </c>
       <c r="B286">
         <v>283</v>
       </c>
@@ -48006,7 +51157,10 @@
         <v>9.8318340000000004E-2</v>
       </c>
     </row>
-    <row r="287" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>95907961</v>
+      </c>
       <c r="B287">
         <v>284</v>
       </c>
@@ -48017,7 +51171,10 @@
         <v>0.1015257</v>
       </c>
     </row>
-    <row r="288" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>95907961</v>
+      </c>
       <c r="B288">
         <v>285</v>
       </c>
@@ -48028,7 +51185,10 @@
         <v>9.7732719999999995E-2</v>
       </c>
     </row>
-    <row r="289" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>95907961</v>
+      </c>
       <c r="B289">
         <v>286</v>
       </c>
@@ -48039,7 +51199,10 @@
         <v>9.7565440000000003E-2</v>
       </c>
     </row>
-    <row r="290" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>95907961</v>
+      </c>
       <c r="B290">
         <v>287</v>
       </c>
@@ -48050,7 +51213,10 @@
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="291" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>95907961</v>
+      </c>
       <c r="B291">
         <v>288</v>
       </c>
@@ -48061,7 +51227,10 @@
         <v>0.1021074</v>
       </c>
     </row>
-    <row r="292" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>95907961</v>
+      </c>
       <c r="B292">
         <v>289</v>
       </c>
@@ -48072,7 +51241,10 @@
         <v>0.1005093</v>
       </c>
     </row>
-    <row r="293" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>95907961</v>
+      </c>
       <c r="B293">
         <v>290</v>
       </c>
@@ -48083,7 +51255,10 @@
         <v>0.1046079</v>
       </c>
     </row>
-    <row r="294" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>95907961</v>
+      </c>
       <c r="B294">
         <v>291</v>
       </c>
@@ -48094,7 +51269,10 @@
         <v>0.1011074</v>
       </c>
     </row>
-    <row r="295" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>95907961</v>
+      </c>
       <c r="B295">
         <v>292</v>
       </c>
@@ -48105,7 +51283,10 @@
         <v>0.1018815</v>
       </c>
     </row>
-    <row r="296" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>95907961</v>
+      </c>
       <c r="B296">
         <v>293</v>
       </c>
@@ -48116,7 +51297,10 @@
         <v>0.1038999</v>
       </c>
     </row>
-    <row r="297" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>95907961</v>
+      </c>
       <c r="B297">
         <v>294</v>
       </c>
@@ -48127,7 +51311,10 @@
         <v>0.1009222</v>
       </c>
     </row>
-    <row r="298" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>95907961</v>
+      </c>
       <c r="B298">
         <v>295</v>
       </c>
@@ -48138,7 +51325,10 @@
         <v>0.102187</v>
       </c>
     </row>
-    <row r="299" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>95907961</v>
+      </c>
       <c r="B299">
         <v>296</v>
       </c>
@@ -48149,7 +51339,10 @@
         <v>0.10727829999999999</v>
       </c>
     </row>
-    <row r="300" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>95907961</v>
+      </c>
       <c r="B300">
         <v>297</v>
       </c>
@@ -48160,7 +51353,10 @@
         <v>0.1048391</v>
       </c>
     </row>
-    <row r="301" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>95907961</v>
+      </c>
       <c r="B301">
         <v>298</v>
       </c>
@@ -48171,7 +51367,10 @@
         <v>0.104864</v>
       </c>
     </row>
-    <row r="302" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>95907961</v>
+      </c>
       <c r="B302">
         <v>299</v>
       </c>
@@ -48182,7 +51381,10 @@
         <v>0.1023473</v>
       </c>
     </row>
-    <row r="303" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>95907961</v>
+      </c>
       <c r="B303">
         <v>300</v>
       </c>
@@ -48193,7 +51395,10 @@
         <v>0.101744</v>
       </c>
     </row>
-    <row r="304" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>95907961</v>
+      </c>
       <c r="B304">
         <v>301</v>
       </c>
@@ -48204,7 +51409,10 @@
         <v>0.1002533</v>
       </c>
     </row>
-    <row r="305" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>95907961</v>
+      </c>
       <c r="B305">
         <v>302</v>
       </c>
@@ -48215,7 +51423,10 @@
         <v>0.1054913</v>
       </c>
     </row>
-    <row r="306" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>95907961</v>
+      </c>
       <c r="B306">
         <v>303</v>
       </c>
@@ -48226,7 +51437,10 @@
         <v>0.1035227</v>
       </c>
     </row>
-    <row r="307" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>95907961</v>
+      </c>
       <c r="B307">
         <v>304</v>
       </c>
@@ -48237,7 +51451,10 @@
         <v>0.104225</v>
       </c>
     </row>
-    <row r="308" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>95907961</v>
+      </c>
       <c r="B308">
         <v>305</v>
       </c>
@@ -48248,7 +51465,10 @@
         <v>0.1060391</v>
       </c>
     </row>
-    <row r="309" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>95907961</v>
+      </c>
       <c r="B309">
         <v>306</v>
       </c>
@@ -48259,7 +51479,10 @@
         <v>0.10475379999999999</v>
       </c>
     </row>
-    <row r="310" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>95907961</v>
+      </c>
       <c r="B310">
         <v>307</v>
       </c>
@@ -48270,7 +51493,10 @@
         <v>0.10388989999999999</v>
       </c>
     </row>
-    <row r="311" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>95907961</v>
+      </c>
       <c r="B311">
         <v>308</v>
       </c>
@@ -48281,7 +51507,10 @@
         <v>0.10277269999999999</v>
       </c>
     </row>
-    <row r="312" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>95907961</v>
+      </c>
       <c r="B312">
         <v>309</v>
       </c>
@@ -48292,7 +51521,10 @@
         <v>0.10564080000000001</v>
       </c>
     </row>
-    <row r="313" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>95907961</v>
+      </c>
       <c r="B313">
         <v>310</v>
       </c>
@@ -48303,7 +51535,10 @@
         <v>0.1015066</v>
       </c>
     </row>
-    <row r="314" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>95907961</v>
+      </c>
       <c r="B314">
         <v>311</v>
       </c>
@@ -48314,7 +51549,10 @@
         <v>9.9863170000000001E-2</v>
       </c>
     </row>
-    <row r="315" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>95907961</v>
+      </c>
       <c r="B315">
         <v>312</v>
       </c>
@@ -48325,7 +51563,10 @@
         <v>9.6366220000000002E-2</v>
       </c>
     </row>
-    <row r="316" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>95907961</v>
+      </c>
       <c r="B316">
         <v>313</v>
       </c>
@@ -48336,7 +51577,10 @@
         <v>9.5781580000000005E-2</v>
       </c>
     </row>
-    <row r="317" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>95907961</v>
+      </c>
       <c r="B317">
         <v>314</v>
       </c>
@@ -48347,7 +51591,10 @@
         <v>9.8998680000000006E-2</v>
       </c>
     </row>
-    <row r="318" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>95907961</v>
+      </c>
       <c r="B318">
         <v>315</v>
       </c>
@@ -48358,7 +51605,10 @@
         <v>0.1011558</v>
       </c>
     </row>
-    <row r="319" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>95907961</v>
+      </c>
       <c r="B319">
         <v>316</v>
       </c>
@@ -48369,7 +51619,10 @@
         <v>0.1019433</v>
       </c>
     </row>
-    <row r="320" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>95907961</v>
+      </c>
       <c r="B320">
         <v>317</v>
       </c>
@@ -48380,7 +51633,10 @@
         <v>0.1014553</v>
       </c>
     </row>
-    <row r="321" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>95907961</v>
+      </c>
       <c r="B321">
         <v>318</v>
       </c>
@@ -48391,7 +51647,10 @@
         <v>0.1012763</v>
       </c>
     </row>
-    <row r="322" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>95907961</v>
+      </c>
       <c r="B322">
         <v>319</v>
       </c>
@@ -48402,7 +51661,10 @@
         <v>0.1023922</v>
       </c>
     </row>
-    <row r="323" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>95907961</v>
+      </c>
       <c r="B323">
         <v>320</v>
       </c>
@@ -48413,7 +51675,10 @@
         <v>0.1005132</v>
       </c>
     </row>
-    <row r="324" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>95907961</v>
+      </c>
       <c r="B324">
         <v>321</v>
       </c>
@@ -48424,7 +51689,10 @@
         <v>0.10223069999999999</v>
       </c>
     </row>
-    <row r="325" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>95907961</v>
+      </c>
       <c r="B325">
         <v>322</v>
       </c>
@@ -48435,7 +51703,10 @@
         <v>9.9308889999999997E-2</v>
       </c>
     </row>
-    <row r="326" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>95907961</v>
+      </c>
       <c r="B326">
         <v>323</v>
       </c>
@@ -48446,7 +51717,10 @@
         <v>0.1023279</v>
       </c>
     </row>
-    <row r="327" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>95907961</v>
+      </c>
       <c r="B327">
         <v>324</v>
       </c>
@@ -48457,7 +51731,10 @@
         <v>9.8671750000000003E-2</v>
       </c>
     </row>
-    <row r="328" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>95907961</v>
+      </c>
       <c r="B328">
         <v>325</v>
       </c>
@@ -48468,7 +51745,10 @@
         <v>0.1016146</v>
       </c>
     </row>
-    <row r="329" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>95907961</v>
+      </c>
       <c r="B329">
         <v>326</v>
       </c>
@@ -48479,7 +51759,10 @@
         <v>0.1074697</v>
       </c>
     </row>
-    <row r="330" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>95907961</v>
+      </c>
       <c r="B330">
         <v>327</v>
       </c>
@@ -48490,7 +51773,10 @@
         <v>0.10289180000000001</v>
       </c>
     </row>
-    <row r="331" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>95907961</v>
+      </c>
       <c r="B331">
         <v>328</v>
       </c>
@@ -48501,7 +51787,10 @@
         <v>0.1049466</v>
       </c>
     </row>
-    <row r="332" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>95907961</v>
+      </c>
       <c r="B332">
         <v>329</v>
       </c>
@@ -48512,7 +51801,10 @@
         <v>0.1027802</v>
       </c>
     </row>
-    <row r="333" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>95907961</v>
+      </c>
       <c r="B333">
         <v>330</v>
       </c>
@@ -48523,7 +51815,10 @@
         <v>0.10563939999999999</v>
       </c>
     </row>
-    <row r="334" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>95907961</v>
+      </c>
       <c r="B334">
         <v>331</v>
       </c>
@@ -48534,7 +51829,10 @@
         <v>0.1030305</v>
       </c>
     </row>
-    <row r="335" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>95907961</v>
+      </c>
       <c r="B335">
         <v>332</v>
       </c>
@@ -48545,7 +51843,10 @@
         <v>0.1057414</v>
       </c>
     </row>
-    <row r="336" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>95907961</v>
+      </c>
       <c r="B336">
         <v>333</v>
       </c>
@@ -48556,7 +51857,10 @@
         <v>0.1053741</v>
       </c>
     </row>
-    <row r="337" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>95907961</v>
+      </c>
       <c r="B337">
         <v>334</v>
       </c>
@@ -48567,7 +51871,10 @@
         <v>0.1045389</v>
       </c>
     </row>
-    <row r="338" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>95907961</v>
+      </c>
       <c r="B338">
         <v>335</v>
       </c>
@@ -48578,7 +51885,10 @@
         <v>0.10377500000000001</v>
       </c>
     </row>
-    <row r="339" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>95907961</v>
+      </c>
       <c r="B339">
         <v>336</v>
       </c>
@@ -48589,7 +51899,10 @@
         <v>0.1062095</v>
       </c>
     </row>
-    <row r="340" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>95907961</v>
+      </c>
       <c r="B340">
         <v>337</v>
       </c>
@@ -48600,7 +51913,10 @@
         <v>0.1047632</v>
       </c>
     </row>
-    <row r="341" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>95907961</v>
+      </c>
       <c r="B341">
         <v>338</v>
       </c>
@@ -48611,7 +51927,10 @@
         <v>0.1061385</v>
       </c>
     </row>
-    <row r="342" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>95907961</v>
+      </c>
       <c r="B342">
         <v>339</v>
       </c>
@@ -48622,7 +51941,10 @@
         <v>0.10677159999999999</v>
       </c>
     </row>
-    <row r="343" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>95907961</v>
+      </c>
       <c r="B343">
         <v>340</v>
       </c>
@@ -48633,7 +51955,10 @@
         <v>0.1048356</v>
       </c>
     </row>
-    <row r="344" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>95907961</v>
+      </c>
       <c r="B344">
         <v>341</v>
       </c>
@@ -48644,7 +51969,10 @@
         <v>0.1036543</v>
       </c>
     </row>
-    <row r="345" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>95907961</v>
+      </c>
       <c r="B345">
         <v>342</v>
       </c>
@@ -48655,7 +51983,10 @@
         <v>0.1069712</v>
       </c>
     </row>
-    <row r="346" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>95907961</v>
+      </c>
       <c r="B346">
         <v>343</v>
       </c>
@@ -48666,7 +51997,10 @@
         <v>0.1053862</v>
       </c>
     </row>
-    <row r="347" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>95907961</v>
+      </c>
       <c r="B347">
         <v>344</v>
       </c>
@@ -48677,7 +52011,10 @@
         <v>0.10411620000000001</v>
       </c>
     </row>
-    <row r="348" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>95907961</v>
+      </c>
       <c r="B348">
         <v>345</v>
       </c>
@@ -48688,7 +52025,10 @@
         <v>0.1030174</v>
       </c>
     </row>
-    <row r="349" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>95907961</v>
+      </c>
       <c r="B349">
         <v>346</v>
       </c>
@@ -48699,7 +52039,10 @@
         <v>0.103509</v>
       </c>
     </row>
-    <row r="350" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>95907961</v>
+      </c>
       <c r="B350">
         <v>347</v>
       </c>
@@ -48710,7 +52053,10 @@
         <v>0.10584010000000001</v>
       </c>
     </row>
-    <row r="351" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>95907961</v>
+      </c>
       <c r="B351">
         <v>348</v>
       </c>
@@ -48721,7 +52067,10 @@
         <v>0.10612249999999999</v>
       </c>
     </row>
-    <row r="352" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>95907961</v>
+      </c>
       <c r="B352">
         <v>349</v>
       </c>
@@ -48732,7 +52081,10 @@
         <v>0.10248400000000001</v>
       </c>
     </row>
-    <row r="353" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>95907961</v>
+      </c>
       <c r="B353">
         <v>350</v>
       </c>
@@ -48743,7 +52095,10 @@
         <v>0.1058323</v>
       </c>
     </row>
-    <row r="354" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>95907961</v>
+      </c>
       <c r="B354">
         <v>351</v>
       </c>
@@ -48754,7 +52109,10 @@
         <v>0.10312200000000001</v>
       </c>
     </row>
-    <row r="355" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>95907961</v>
+      </c>
       <c r="B355">
         <v>352</v>
       </c>
@@ -48765,7 +52123,10 @@
         <v>0.1068432</v>
       </c>
     </row>
-    <row r="356" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>95907961</v>
+      </c>
       <c r="B356">
         <v>353</v>
       </c>
@@ -48776,7 +52137,10 @@
         <v>0.1055417</v>
       </c>
     </row>
-    <row r="357" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>95907961</v>
+      </c>
       <c r="B357">
         <v>354</v>
       </c>
@@ -48787,7 +52151,10 @@
         <v>0.1069087</v>
       </c>
     </row>
-    <row r="358" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>95907961</v>
+      </c>
       <c r="B358">
         <v>355</v>
       </c>
@@ -48798,7 +52165,10 @@
         <v>0.1052578</v>
       </c>
     </row>
-    <row r="359" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>95907961</v>
+      </c>
       <c r="B359">
         <v>356</v>
       </c>
@@ -48809,7 +52179,10 @@
         <v>0.1044746</v>
       </c>
     </row>
-    <row r="360" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>95907961</v>
+      </c>
       <c r="B360">
         <v>357</v>
       </c>
@@ -48820,7 +52193,10 @@
         <v>0.10311629999999999</v>
       </c>
     </row>
-    <row r="361" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>95907961</v>
+      </c>
       <c r="B361">
         <v>358</v>
       </c>
@@ -48831,7 +52207,10 @@
         <v>0.10639319999999999</v>
       </c>
     </row>
-    <row r="362" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>95907961</v>
+      </c>
       <c r="B362">
         <v>359</v>
       </c>
@@ -48842,7 +52221,10 @@
         <v>0.1045645</v>
       </c>
     </row>
-    <row r="363" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>95907961</v>
+      </c>
       <c r="B363">
         <v>360</v>
       </c>
@@ -48853,7 +52235,10 @@
         <v>0.1057795</v>
       </c>
     </row>
-    <row r="364" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>95907961</v>
+      </c>
       <c r="B364">
         <v>361</v>
       </c>
@@ -48864,7 +52249,10 @@
         <v>0.10566739999999999</v>
       </c>
     </row>
-    <row r="365" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>95907961</v>
+      </c>
       <c r="B365">
         <v>362</v>
       </c>
@@ -48875,7 +52263,10 @@
         <v>0.1036199</v>
       </c>
     </row>
-    <row r="366" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>95907961</v>
+      </c>
       <c r="B366">
         <v>363</v>
       </c>
@@ -48886,7 +52277,10 @@
         <v>0.1065811</v>
       </c>
     </row>
-    <row r="367" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>95907961</v>
+      </c>
       <c r="B367">
         <v>364</v>
       </c>
@@ -48897,7 +52291,10 @@
         <v>0.10486620000000001</v>
       </c>
     </row>
-    <row r="368" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>95907961</v>
+      </c>
       <c r="B368">
         <v>365</v>
       </c>
@@ -48908,7 +52305,10 @@
         <v>0.1035498</v>
       </c>
     </row>
-    <row r="369" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>95907961</v>
+      </c>
       <c r="B369">
         <v>366</v>
       </c>
@@ -48919,7 +52319,10 @@
         <v>0.1027532</v>
       </c>
     </row>
-    <row r="370" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>95907961</v>
+      </c>
       <c r="B370">
         <v>367</v>
       </c>
@@ -48930,7 +52333,10 @@
         <v>0.1040388</v>
       </c>
     </row>
-    <row r="371" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>95907961</v>
+      </c>
       <c r="B371">
         <v>368</v>
       </c>
@@ -48941,7 +52347,10 @@
         <v>0.1035589</v>
       </c>
     </row>
-    <row r="372" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>95907961</v>
+      </c>
       <c r="B372">
         <v>369</v>
       </c>
@@ -48952,7 +52361,10 @@
         <v>0.102309</v>
       </c>
     </row>
-    <row r="373" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>95907961</v>
+      </c>
       <c r="B373">
         <v>370</v>
       </c>
@@ -48963,7 +52375,10 @@
         <v>0.1061411</v>
       </c>
     </row>
-    <row r="374" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>95907961</v>
+      </c>
       <c r="B374">
         <v>371</v>
       </c>
@@ -48974,7 +52389,10 @@
         <v>0.1039458</v>
       </c>
     </row>
-    <row r="375" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>95907961</v>
+      </c>
       <c r="B375">
         <v>372</v>
       </c>
@@ -48985,7 +52403,10 @@
         <v>0.1042305</v>
       </c>
     </row>
-    <row r="376" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>95907961</v>
+      </c>
       <c r="B376">
         <v>373</v>
       </c>
@@ -48996,7 +52417,10 @@
         <v>0.106548</v>
       </c>
     </row>
-    <row r="377" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>95907961</v>
+      </c>
       <c r="B377">
         <v>374</v>
       </c>
@@ -49007,7 +52431,10 @@
         <v>0.10427019999999999</v>
       </c>
     </row>
-    <row r="378" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>95907961</v>
+      </c>
       <c r="B378">
         <v>375</v>
       </c>
@@ -49078,22 +52505,22 @@
         <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P2" t="s">
         <v>15</v>
@@ -49228,6 +52655,15 @@
       <c r="K5">
         <v>10860000</v>
       </c>
+      <c r="L5">
+        <v>2494000</v>
+      </c>
+      <c r="M5">
+        <v>1884000</v>
+      </c>
+      <c r="N5">
+        <v>506000</v>
+      </c>
       <c r="P5" s="3">
         <f>P9/6*2</f>
         <v>1.3774620561660298</v>
@@ -49268,6 +52704,15 @@
       <c r="K6">
         <v>10860000</v>
       </c>
+      <c r="L6">
+        <v>2788000</v>
+      </c>
+      <c r="M6">
+        <v>1884000</v>
+      </c>
+      <c r="N6">
+        <v>506000</v>
+      </c>
       <c r="P6" s="3">
         <f>P9/6*3</f>
         <v>2.0661930842490448</v>
@@ -49308,6 +52753,15 @@
       <c r="K7">
         <v>10860000</v>
       </c>
+      <c r="L7">
+        <v>2899000</v>
+      </c>
+      <c r="M7">
+        <v>2131000</v>
+      </c>
+      <c r="N7">
+        <v>506000</v>
+      </c>
       <c r="P7" s="3">
         <f>P9/6*4</f>
         <v>2.7549241123320596</v>
@@ -49348,6 +52802,15 @@
       <c r="K8">
         <v>10860000</v>
       </c>
+      <c r="L8">
+        <v>2094000</v>
+      </c>
+      <c r="M8">
+        <v>1820000</v>
+      </c>
+      <c r="N8">
+        <v>798000</v>
+      </c>
       <c r="P8" s="3">
         <f>P9/6*5</f>
         <v>3.4436551404150744</v>
@@ -49388,6 +52851,15 @@
       <c r="K9">
         <v>13198000</v>
       </c>
+      <c r="L9">
+        <v>2631000</v>
+      </c>
+      <c r="M9">
+        <v>1866000</v>
+      </c>
+      <c r="N9">
+        <v>775000</v>
+      </c>
       <c r="P9" s="3">
         <v>4.1323861684980896</v>
       </c>
@@ -49427,6 +52899,15 @@
       <c r="K10">
         <v>13198000</v>
       </c>
+      <c r="L10">
+        <v>2807000</v>
+      </c>
+      <c r="M10">
+        <v>1866000</v>
+      </c>
+      <c r="N10">
+        <v>775000</v>
+      </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11">
@@ -49460,6 +52941,15 @@
       <c r="K11">
         <v>13198000</v>
       </c>
+      <c r="L11">
+        <v>2807000</v>
+      </c>
+      <c r="M11">
+        <v>1655000</v>
+      </c>
+      <c r="N11">
+        <v>775000</v>
+      </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12">
@@ -49493,6 +52983,15 @@
       <c r="K12">
         <v>13198000</v>
       </c>
+      <c r="L12">
+        <v>2835000</v>
+      </c>
+      <c r="M12">
+        <v>1655000</v>
+      </c>
+      <c r="N12">
+        <v>899000</v>
+      </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13">
@@ -49526,6 +53025,15 @@
       <c r="K13">
         <v>13198000</v>
       </c>
+      <c r="L13">
+        <v>2835000</v>
+      </c>
+      <c r="M13">
+        <v>1655000</v>
+      </c>
+      <c r="N13">
+        <v>899000</v>
+      </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14">
@@ -49559,6 +53067,15 @@
       <c r="K14">
         <v>22000</v>
       </c>
+      <c r="L14">
+        <v>1834000</v>
+      </c>
+      <c r="M14">
+        <v>1994000</v>
+      </c>
+      <c r="N14">
+        <v>799000</v>
+      </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15">
@@ -49592,6 +53109,15 @@
       <c r="K15">
         <v>22000</v>
       </c>
+      <c r="L15">
+        <v>1524000</v>
+      </c>
+      <c r="M15">
+        <v>1994000</v>
+      </c>
+      <c r="N15">
+        <v>799000</v>
+      </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16">
@@ -49625,8 +53151,17 @@
       <c r="K16">
         <v>171000</v>
       </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <v>1664000</v>
+      </c>
+      <c r="M16">
+        <v>1994000</v>
+      </c>
+      <c r="N16">
+        <v>799000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -49658,8 +53193,17 @@
       <c r="K17">
         <v>238000</v>
       </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <v>1612000</v>
+      </c>
+      <c r="M17">
+        <v>2399000</v>
+      </c>
+      <c r="N17">
+        <v>799000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -49691,8 +53235,17 @@
       <c r="K18">
         <v>238000</v>
       </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <v>1612000</v>
+      </c>
+      <c r="M18">
+        <v>2399000</v>
+      </c>
+      <c r="N18">
+        <v>799000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -49724,8 +53277,17 @@
       <c r="K19">
         <v>387000</v>
       </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <v>1664000</v>
+      </c>
+      <c r="M19">
+        <v>1899000</v>
+      </c>
+      <c r="N19">
+        <v>799000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -49757,8 +53319,17 @@
       <c r="K20">
         <v>5472000</v>
       </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L20">
+        <v>1664000</v>
+      </c>
+      <c r="M20">
+        <v>1899000</v>
+      </c>
+      <c r="N20">
+        <v>799000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -49790,8 +53361,17 @@
       <c r="K21">
         <v>7530000</v>
       </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L21">
+        <v>1943000</v>
+      </c>
+      <c r="M21">
+        <v>1830000</v>
+      </c>
+      <c r="N21">
+        <v>799000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -49823,8 +53403,17 @@
       <c r="K22">
         <v>7530000</v>
       </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L22">
+        <v>1943000</v>
+      </c>
+      <c r="M22">
+        <v>1906000</v>
+      </c>
+      <c r="N22">
+        <v>799000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -49856,8 +53445,17 @@
       <c r="K23">
         <v>7530000</v>
       </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L23">
+        <v>2788000</v>
+      </c>
+      <c r="M23">
+        <v>1836000</v>
+      </c>
+      <c r="N23">
+        <v>869000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -49889,8 +53487,17 @@
       <c r="K24">
         <v>7530000</v>
       </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L24">
+        <v>1943000</v>
+      </c>
+      <c r="M24">
+        <v>1604000</v>
+      </c>
+      <c r="N24">
+        <v>799000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -49922,8 +53529,17 @@
       <c r="K25">
         <v>7530000</v>
       </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L25">
+        <v>2415000</v>
+      </c>
+      <c r="M25">
+        <v>2025000</v>
+      </c>
+      <c r="N25">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -49955,8 +53571,17 @@
       <c r="K26">
         <v>7530000</v>
       </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L26">
+        <v>2415000</v>
+      </c>
+      <c r="M26">
+        <v>2025000</v>
+      </c>
+      <c r="N26">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -49989,7 +53614,7 @@
         <v>7530000</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -50022,7 +53647,7 @@
         <v>13028000</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -50055,7 +53680,7 @@
         <v>15057000</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -50088,7 +53713,7 @@
         <v>15057000</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -50121,7 +53746,7 @@
         <v>15057000</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32">
         <f t="shared" si="0"/>
         <v>29</v>

--- a/Scriptie - Experiment resultaten.xlsx
+++ b/Scriptie - Experiment resultaten.xlsx
@@ -8147,8 +8147,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="34498048"/>
-        <c:axId val="34499968"/>
+        <c:axId val="90844160"/>
+        <c:axId val="90850432"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -11010,11 +11010,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="34512896"/>
-        <c:axId val="34510336"/>
+        <c:axId val="90867200"/>
+        <c:axId val="90852352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="34498048"/>
+        <c:axId val="90844160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11054,7 +11054,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="34499968"/>
+        <c:crossAx val="90850432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11064,7 +11064,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="34499968"/>
+        <c:axId val="90850432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11104,12 +11104,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="34498048"/>
+        <c:crossAx val="90844160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="34510336"/>
+        <c:axId val="90852352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11150,7 +11150,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="34512896"/>
+        <c:crossAx val="90867200"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -11171,7 +11171,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:catAx>
-        <c:axId val="34512896"/>
+        <c:axId val="90867200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11181,7 +11181,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="34510336"/>
+        <c:crossAx val="90852352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12695,8 +12695,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="145724160"/>
-        <c:axId val="145726080"/>
+        <c:axId val="92017408"/>
+        <c:axId val="92019328"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -13717,11 +13717,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="145742848"/>
-        <c:axId val="145740544"/>
+        <c:axId val="92044288"/>
+        <c:axId val="92041984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="145724160"/>
+        <c:axId val="92017408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13761,7 +13761,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145726080"/>
+        <c:crossAx val="92019328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13771,7 +13771,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145726080"/>
+        <c:axId val="92019328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13811,12 +13811,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145724160"/>
+        <c:crossAx val="92017408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="145740544"/>
+        <c:axId val="92041984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13857,7 +13857,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145742848"/>
+        <c:crossAx val="92044288"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -13868,7 +13868,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:catAx>
-        <c:axId val="145742848"/>
+        <c:axId val="92044288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13878,7 +13878,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145740544"/>
+        <c:crossAx val="92041984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -25849,8 +25849,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="97028736"/>
-        <c:axId val="97047296"/>
+        <c:axId val="92658688"/>
+        <c:axId val="92660864"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -25911,11 +25911,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="97055872"/>
-        <c:axId val="97049600"/>
+        <c:axId val="92538368"/>
+        <c:axId val="92663168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="97028736"/>
+        <c:axId val="92658688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25955,7 +25955,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97047296"/>
+        <c:crossAx val="92660864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -25965,7 +25965,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97047296"/>
+        <c:axId val="92660864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -26005,7 +26005,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97028736"/>
+        <c:crossAx val="92658688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -26031,7 +26031,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="97049600"/>
+        <c:axId val="92663168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.29577009361005"/>
@@ -26074,14 +26074,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97055872"/>
+        <c:crossAx val="92538368"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.25"/>
         <c:minorUnit val="5.000000000000001E-2"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="97055872"/>
+        <c:axId val="92538368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -26090,7 +26090,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97049600"/>
+        <c:crossAx val="92663168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -29003,8 +29003,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="97228288"/>
-        <c:axId val="97230208"/>
+        <c:axId val="92589056"/>
+        <c:axId val="92804224"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -29065,11 +29065,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="97255424"/>
-        <c:axId val="97249152"/>
+        <c:axId val="92816896"/>
+        <c:axId val="92806528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="97228288"/>
+        <c:axId val="92589056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -29109,7 +29109,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97230208"/>
+        <c:crossAx val="92804224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -29119,7 +29119,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97230208"/>
+        <c:axId val="92804224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -29159,7 +29159,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97228288"/>
+        <c:crossAx val="92589056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -29185,7 +29185,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="97249152"/>
+        <c:axId val="92806528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4.1323861684980878"/>
@@ -29228,14 +29228,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97255424"/>
+        <c:crossAx val="92816896"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
         <c:minorUnit val="0.25"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="97255424"/>
+        <c:axId val="92816896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -29244,7 +29244,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97249152"/>
+        <c:crossAx val="92806528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -41202,8 +41202,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="97339264"/>
-        <c:axId val="97353728"/>
+        <c:axId val="93265920"/>
+        <c:axId val="93267840"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -41264,11 +41264,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="97362304"/>
-        <c:axId val="97356032"/>
+        <c:axId val="93276416"/>
+        <c:axId val="93274496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="97339264"/>
+        <c:axId val="93265920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -41301,13 +41301,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97353728"/>
+        <c:crossAx val="93267840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -41317,7 +41318,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97353728"/>
+        <c:axId val="93267840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -41350,18 +41351,20 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97339264"/>
+        <c:crossAx val="93265920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
           <c:builtInUnit val="millions"/>
           <c:dispUnitsLbl>
+            <c:layout/>
             <c:tx>
               <c:rich>
                 <a:bodyPr rot="0" vert="horz"/>
@@ -41381,7 +41384,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="97356032"/>
+        <c:axId val="93274496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.55098482246641212"/>
@@ -41416,20 +41419,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97362304"/>
+        <c:crossAx val="93276416"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
         <c:minorUnit val="2.0000000000000004E-2"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="97362304"/>
+        <c:axId val="93276416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -41438,7 +41442,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97356032"/>
+        <c:crossAx val="93274496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -41448,6 +41452,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -43354,8 +43359,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="97780096"/>
-        <c:axId val="97782016"/>
+        <c:axId val="93312128"/>
+        <c:axId val="93314048"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -43416,11 +43421,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="97794688"/>
-        <c:axId val="97792768"/>
+        <c:axId val="93404544"/>
+        <c:axId val="93402624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="97780096"/>
+        <c:axId val="93312128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -43453,13 +43458,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97782016"/>
+        <c:crossAx val="93314048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -43469,7 +43475,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97782016"/>
+        <c:axId val="93314048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -43502,18 +43508,20 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97780096"/>
+        <c:crossAx val="93312128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
           <c:builtInUnit val="millions"/>
           <c:dispUnitsLbl>
+            <c:layout/>
             <c:tx>
               <c:rich>
                 <a:bodyPr rot="0" vert="horz"/>
@@ -43533,7 +43541,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="97792768"/>
+        <c:axId val="93402624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.55098482246641212"/>
@@ -43568,20 +43576,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97794688"/>
+        <c:crossAx val="93404544"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
         <c:minorUnit val="2.0000000000000004E-2"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="97794688"/>
+        <c:axId val="93404544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -43590,7 +43599,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97792768"/>
+        <c:crossAx val="93402624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -43600,6 +43609,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -44392,7 +44402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M378"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>

--- a/Scriptie - Experiment resultaten.xlsx
+++ b/Scriptie - Experiment resultaten.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-150" yWindow="-360" windowWidth="29100" windowHeight="13335"/>
+    <workbookView xWindow="-150" yWindow="-300" windowWidth="29100" windowHeight="13275" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Fitnesses &amp; Outputs" sheetId="1" r:id="rId1"/>
@@ -8147,8 +8147,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="90844160"/>
-        <c:axId val="90850432"/>
+        <c:axId val="98296192"/>
+        <c:axId val="98298496"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -11010,11 +11010,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="90867200"/>
-        <c:axId val="90852352"/>
+        <c:axId val="98410496"/>
+        <c:axId val="98300672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="90844160"/>
+        <c:axId val="98296192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11054,7 +11054,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90850432"/>
+        <c:crossAx val="98298496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11064,7 +11064,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90850432"/>
+        <c:axId val="98298496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11104,12 +11104,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90844160"/>
+        <c:crossAx val="98296192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="90852352"/>
+        <c:axId val="98300672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11150,7 +11150,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90867200"/>
+        <c:crossAx val="98410496"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -11171,7 +11171,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:catAx>
-        <c:axId val="90867200"/>
+        <c:axId val="98410496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11181,7 +11181,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90852352"/>
+        <c:crossAx val="98300672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12695,8 +12695,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="92017408"/>
-        <c:axId val="92019328"/>
+        <c:axId val="90010752"/>
+        <c:axId val="90012672"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -13717,11 +13717,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="92044288"/>
-        <c:axId val="92041984"/>
+        <c:axId val="90021248"/>
+        <c:axId val="90018944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="92017408"/>
+        <c:axId val="90010752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13761,7 +13761,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92019328"/>
+        <c:crossAx val="90012672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13771,7 +13771,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92019328"/>
+        <c:axId val="90012672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13811,12 +13811,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92017408"/>
+        <c:crossAx val="90010752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="92041984"/>
+        <c:axId val="90018944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13857,7 +13857,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92044288"/>
+        <c:crossAx val="90021248"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -13868,7 +13868,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:catAx>
-        <c:axId val="92044288"/>
+        <c:axId val="90021248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13878,7 +13878,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92041984"/>
+        <c:crossAx val="90018944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -25849,8 +25849,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="92658688"/>
-        <c:axId val="92660864"/>
+        <c:axId val="90781184"/>
+        <c:axId val="90783104"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -25911,11 +25911,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="92538368"/>
-        <c:axId val="92663168"/>
+        <c:axId val="90787840"/>
+        <c:axId val="90785664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="92658688"/>
+        <c:axId val="90781184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25955,7 +25955,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92660864"/>
+        <c:crossAx val="90783104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -25965,7 +25965,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92660864"/>
+        <c:axId val="90783104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -26005,7 +26005,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92658688"/>
+        <c:crossAx val="90781184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -26031,7 +26031,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="92663168"/>
+        <c:axId val="90785664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.29577009361005"/>
@@ -26074,14 +26074,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92538368"/>
+        <c:crossAx val="90787840"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.25"/>
         <c:minorUnit val="5.000000000000001E-2"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="92538368"/>
+        <c:axId val="90787840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -26090,7 +26090,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92663168"/>
+        <c:crossAx val="90785664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -29003,8 +29003,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="92589056"/>
-        <c:axId val="92804224"/>
+        <c:axId val="90822144"/>
+        <c:axId val="90824064"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -29065,11 +29065,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="92816896"/>
-        <c:axId val="92806528"/>
+        <c:axId val="90865664"/>
+        <c:axId val="90851200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="92589056"/>
+        <c:axId val="90822144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -29109,7 +29109,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92804224"/>
+        <c:crossAx val="90824064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -29119,7 +29119,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92804224"/>
+        <c:axId val="90824064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -29159,7 +29159,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92589056"/>
+        <c:crossAx val="90822144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -29185,7 +29185,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="92806528"/>
+        <c:axId val="90851200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4.1323861684980878"/>
@@ -29228,14 +29228,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92816896"/>
+        <c:crossAx val="90865664"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
         <c:minorUnit val="0.25"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="92816896"/>
+        <c:axId val="90865664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -29244,7 +29244,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92806528"/>
+        <c:crossAx val="90851200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -41202,8 +41202,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="93265920"/>
-        <c:axId val="93267840"/>
+        <c:axId val="92051328"/>
+        <c:axId val="92061696"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -41264,11 +41264,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="93276416"/>
-        <c:axId val="93274496"/>
+        <c:axId val="92074368"/>
+        <c:axId val="92064000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="93265920"/>
+        <c:axId val="92051328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -41301,14 +41301,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93267840"/>
+        <c:crossAx val="92061696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -41318,7 +41317,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93267840"/>
+        <c:axId val="92061696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -41351,20 +41350,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93265920"/>
+        <c:crossAx val="92051328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
           <c:builtInUnit val="millions"/>
           <c:dispUnitsLbl>
-            <c:layout/>
             <c:tx>
               <c:rich>
                 <a:bodyPr rot="0" vert="horz"/>
@@ -41384,7 +41381,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="93274496"/>
+        <c:axId val="92064000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.55098482246641212"/>
@@ -41419,21 +41416,20 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93276416"/>
+        <c:crossAx val="92074368"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
         <c:minorUnit val="2.0000000000000004E-2"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="93276416"/>
+        <c:axId val="92074368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -41442,7 +41438,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93274496"/>
+        <c:crossAx val="92064000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -41452,7 +41448,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -43359,8 +43354,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="93312128"/>
-        <c:axId val="93314048"/>
+        <c:axId val="92429696"/>
+        <c:axId val="92435968"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -43421,11 +43416,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="93404544"/>
-        <c:axId val="93402624"/>
+        <c:axId val="92448640"/>
+        <c:axId val="92446720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="93312128"/>
+        <c:axId val="92429696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -43458,14 +43453,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93314048"/>
+        <c:crossAx val="92435968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -43475,7 +43469,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93314048"/>
+        <c:axId val="92435968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -43508,20 +43502,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93312128"/>
+        <c:crossAx val="92429696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
           <c:builtInUnit val="millions"/>
           <c:dispUnitsLbl>
-            <c:layout/>
             <c:tx>
               <c:rich>
                 <a:bodyPr rot="0" vert="horz"/>
@@ -43541,7 +43533,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="93402624"/>
+        <c:axId val="92446720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.55098482246641212"/>
@@ -43576,21 +43568,20 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93404544"/>
+        <c:crossAx val="92448640"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
         <c:minorUnit val="2.0000000000000004E-2"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="93404544"/>
+        <c:axId val="92448640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -43599,7 +43590,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93402624"/>
+        <c:crossAx val="92446720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -43609,7 +43600,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -44402,7 +44392,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M378"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
@@ -52465,7 +52455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q378"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
